--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_13_29.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_13_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1122172.302877839</v>
+        <v>1121386.112691441</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736556</v>
+        <v>504792.0292736542</v>
       </c>
     </row>
     <row r="9">
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1269,10 +1269,10 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>8.816525072005941</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>8.816525072005941</v>
       </c>
       <c r="F10" t="n">
-        <v>8.816525072005941</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>216.7990624822654</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>287.8917794825124</v>
       </c>
       <c r="F11" t="n">
-        <v>226.779140287752</v>
+        <v>307.0635955704896</v>
       </c>
       <c r="G11" t="n">
-        <v>308.4801155612021</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>221.2548339466274</v>
       </c>
       <c r="I11" t="n">
-        <v>48.22101991740965</v>
+        <v>48.22101991740962</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.63520947935177</v>
+        <v>70.63520947935174</v>
       </c>
       <c r="T11" t="n">
         <v>116.9072096322338</v>
@@ -1433,10 +1433,10 @@
         <v>255.9634976285332</v>
       </c>
       <c r="X11" t="n">
-        <v>275.2637558612798</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>286.6603536574786</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>96.26822063319646</v>
       </c>
       <c r="I12" t="n">
-        <v>58.17914945604763</v>
+        <v>58.17914945604764</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>78.77373178509427</v>
+        <v>78.77373178509424</v>
       </c>
       <c r="C13" t="n">
-        <v>64.97372663049475</v>
+        <v>64.97372663049472</v>
       </c>
       <c r="D13" t="n">
-        <v>48.59509102807314</v>
+        <v>48.59509102807311</v>
       </c>
       <c r="E13" t="n">
-        <v>47.54284088385259</v>
+        <v>47.54284088385256</v>
       </c>
       <c r="F13" t="n">
-        <v>48.0097652120389</v>
+        <v>48.00976521203887</v>
       </c>
       <c r="G13" t="n">
-        <v>64.05267261211861</v>
+        <v>64.0526726121186</v>
       </c>
       <c r="H13" t="n">
-        <v>52.77196442698431</v>
+        <v>52.7719644269843</v>
       </c>
       <c r="I13" t="n">
-        <v>32.84421326131644</v>
+        <v>32.84421326131641</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>34.65811982303225</v>
+        <v>34.65811982303224</v>
       </c>
       <c r="S13" t="n">
         <v>104.5870214772624</v>
       </c>
       <c r="T13" t="n">
-        <v>126.9106822491634</v>
+        <v>126.9106822491633</v>
       </c>
       <c r="U13" t="n">
-        <v>181.3596105221893</v>
+        <v>181.3596105221892</v>
       </c>
       <c r="V13" t="n">
-        <v>155.1818681847199</v>
+        <v>155.1818681847198</v>
       </c>
       <c r="W13" t="n">
         <v>180.3487542553331</v>
@@ -1594,7 +1594,7 @@
         <v>125.9938562511362</v>
       </c>
       <c r="Y13" t="n">
-        <v>116.8687240072032</v>
+        <v>116.8687240072039</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>287.1570209103972</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>275.1683378680789</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>266.1496419126069</v>
       </c>
       <c r="E14" t="n">
         <v>287.8917794825124</v>
@@ -1619,13 +1619,13 @@
         <v>307.0635955704896</v>
       </c>
       <c r="G14" t="n">
-        <v>308.4801155612021</v>
+        <v>308.480115561202</v>
       </c>
       <c r="H14" t="n">
-        <v>221.2548339466274</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>48.22101991740963</v>
+        <v>48.22101991740959</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.63520947935176</v>
+        <v>29.78935464642739</v>
       </c>
       <c r="T14" t="n">
-        <v>116.9072096322338</v>
+        <v>116.9072096322337</v>
       </c>
       <c r="U14" t="n">
-        <v>149.3490598781673</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>255.9634976285332</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>275.2637558612798</v>
       </c>
       <c r="Y14" t="n">
-        <v>129.4669818632481</v>
+        <v>286.6603536574785</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>42.02013387979842</v>
+        <v>42.02013387979841</v>
       </c>
       <c r="S15" t="n">
         <v>146.1359137023102</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>78.77373178509427</v>
+        <v>78.77373178509421</v>
       </c>
       <c r="C16" t="n">
-        <v>64.97372663049475</v>
+        <v>64.9737266304947</v>
       </c>
       <c r="D16" t="n">
-        <v>48.59509102807314</v>
+        <v>48.59509102807309</v>
       </c>
       <c r="E16" t="n">
-        <v>47.54284088385259</v>
+        <v>47.54284088385253</v>
       </c>
       <c r="F16" t="n">
-        <v>48.0097652120389</v>
+        <v>48.00976521203884</v>
       </c>
       <c r="G16" t="n">
-        <v>64.05267261211863</v>
+        <v>64.05267261211856</v>
       </c>
       <c r="H16" t="n">
-        <v>52.77196442698433</v>
+        <v>52.77196442698425</v>
       </c>
       <c r="I16" t="n">
-        <v>32.84421326131644</v>
+        <v>32.84421326131638</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>34.65811982303227</v>
+        <v>34.65811982303219</v>
       </c>
       <c r="S16" t="n">
-        <v>104.5870214772624</v>
+        <v>104.5870214772623</v>
       </c>
       <c r="T16" t="n">
-        <v>126.9106822491634</v>
+        <v>126.9106822491633</v>
       </c>
       <c r="U16" t="n">
-        <v>181.3596105221893</v>
+        <v>181.3596105221892</v>
       </c>
       <c r="V16" t="n">
-        <v>155.1818681847199</v>
+        <v>155.1818681847198</v>
       </c>
       <c r="W16" t="n">
         <v>180.3487542553331</v>
@@ -1841,16 +1841,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>75.16276687253097</v>
+        <v>235.6912598516728</v>
       </c>
       <c r="C17" t="n">
-        <v>223.7025768093546</v>
+        <v>63.17408383021341</v>
       </c>
       <c r="D17" t="n">
         <v>214.6838808538825</v>
       </c>
       <c r="E17" t="n">
-        <v>236.4260184237881</v>
+        <v>236.426018423788</v>
       </c>
       <c r="F17" t="n">
         <v>255.5978345117652</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>19.16944842062738</v>
+        <v>19.16944842062735</v>
       </c>
       <c r="T17" t="n">
-        <v>65.4414485735094</v>
+        <v>65.44144857350938</v>
       </c>
       <c r="U17" t="n">
-        <v>97.88329881944296</v>
+        <v>97.88329881944293</v>
       </c>
       <c r="V17" t="n">
         <v>179.1976370918519</v>
@@ -1907,7 +1907,7 @@
         <v>204.4977365698088</v>
       </c>
       <c r="X17" t="n">
-        <v>223.7979948025555</v>
+        <v>223.7979948025554</v>
       </c>
       <c r="Y17" t="n">
         <v>235.1945925987542</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>42.02013387979842</v>
+        <v>42.02013387979841</v>
       </c>
       <c r="S18" t="n">
         <v>146.1359137023102</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>27.30797072636989</v>
+        <v>27.30797072636986</v>
       </c>
       <c r="C19" t="n">
-        <v>13.50796557177037</v>
+        <v>13.50796557177034</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>31.17472115901145</v>
       </c>
       <c r="G19" t="n">
-        <v>12.58691155339424</v>
+        <v>12.58691155339422</v>
       </c>
       <c r="H19" t="n">
-        <v>1.306203368259943</v>
+        <v>1.306203368259913</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>84.29598157754914</v>
+        <v>53.121260418538</v>
       </c>
       <c r="T19" t="n">
-        <v>75.44492119043898</v>
+        <v>75.44492119043895</v>
       </c>
       <c r="U19" t="n">
         <v>129.8938494634649</v>
       </c>
       <c r="V19" t="n">
-        <v>103.7161071259955</v>
+        <v>103.7161071259954</v>
       </c>
       <c r="W19" t="n">
         <v>128.8829931966087</v>
       </c>
       <c r="X19" t="n">
-        <v>74.52809519241185</v>
+        <v>74.52809519241183</v>
       </c>
       <c r="Y19" t="n">
-        <v>65.40296294847954</v>
+        <v>65.40296294847951</v>
       </c>
     </row>
     <row r="20">
@@ -2078,16 +2078,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>75.16276687252946</v>
+        <v>75.16276687253142</v>
       </c>
       <c r="C20" t="n">
-        <v>223.7025768093546</v>
+        <v>223.7025768093545</v>
       </c>
       <c r="D20" t="n">
         <v>214.6838808538825</v>
       </c>
       <c r="E20" t="n">
-        <v>236.4260184237881</v>
+        <v>236.426018423788</v>
       </c>
       <c r="F20" t="n">
         <v>255.5978345117652</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>19.16944842062738</v>
+        <v>19.16944842062735</v>
       </c>
       <c r="T20" t="n">
-        <v>65.4414485735094</v>
+        <v>65.44144857350938</v>
       </c>
       <c r="U20" t="n">
-        <v>97.88329881944296</v>
+        <v>97.88329881944293</v>
       </c>
       <c r="V20" t="n">
         <v>179.1976370918519</v>
@@ -2144,7 +2144,7 @@
         <v>204.4977365698088</v>
       </c>
       <c r="X20" t="n">
-        <v>223.7979948025555</v>
+        <v>223.7979948025554</v>
       </c>
       <c r="Y20" t="n">
         <v>235.1945925987542</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>42.02013387979842</v>
+        <v>42.02013387979841</v>
       </c>
       <c r="S21" t="n">
         <v>146.1359137023102</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>27.30797072636989</v>
+        <v>27.30797072636986</v>
       </c>
       <c r="C22" t="n">
-        <v>13.50796557177037</v>
+        <v>13.50796557177034</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,10 +2251,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>12.58691155339424</v>
+        <v>12.58691155339422</v>
       </c>
       <c r="H22" t="n">
-        <v>1.306203368259943</v>
+        <v>1.306203368259913</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>84.29598157754914</v>
+        <v>53.121260418538</v>
       </c>
       <c r="T22" t="n">
-        <v>75.44492119043898</v>
+        <v>75.44492119043895</v>
       </c>
       <c r="U22" t="n">
         <v>129.8938494634649</v>
       </c>
       <c r="V22" t="n">
-        <v>103.7161071259955</v>
+        <v>103.7161071259954</v>
       </c>
       <c r="W22" t="n">
         <v>128.8829931966087</v>
       </c>
       <c r="X22" t="n">
-        <v>74.52809519241185</v>
+        <v>74.52809519241183</v>
       </c>
       <c r="Y22" t="n">
-        <v>65.40296294847954</v>
+        <v>96.57768410749097</v>
       </c>
     </row>
     <row r="23">
@@ -2321,13 +2321,13 @@
         <v>223.7025768093546</v>
       </c>
       <c r="D23" t="n">
-        <v>214.6838808538825</v>
+        <v>214.6838808538826</v>
       </c>
       <c r="E23" t="n">
         <v>236.4260184237881</v>
       </c>
       <c r="F23" t="n">
-        <v>255.5978345117652</v>
+        <v>255.5978345117653</v>
       </c>
       <c r="G23" t="n">
         <v>257.0143545024777</v>
@@ -2366,19 +2366,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>19.16944842062739</v>
+        <v>19.1694484206274</v>
       </c>
       <c r="T23" t="n">
-        <v>65.4414485735094</v>
+        <v>65.44144857350943</v>
       </c>
       <c r="U23" t="n">
-        <v>97.88329881944296</v>
+        <v>97.88329881944298</v>
       </c>
       <c r="V23" t="n">
-        <v>179.1976370918519</v>
+        <v>179.197637091852</v>
       </c>
       <c r="W23" t="n">
-        <v>204.4977365698088</v>
+        <v>204.4977365698089</v>
       </c>
       <c r="X23" t="n">
         <v>223.7979948025555</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>42.02013387979842</v>
+        <v>42.02013387979841</v>
       </c>
       <c r="S24" t="n">
         <v>146.1359137023102</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>27.30797072636989</v>
+        <v>27.30797072636992</v>
       </c>
       <c r="C25" t="n">
-        <v>13.50796557177037</v>
+        <v>13.5079655717704</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>12.58691155339424</v>
+        <v>43.76163271240497</v>
       </c>
       <c r="H25" t="n">
-        <v>1.306203368259943</v>
+        <v>1.30620336825997</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>53.12126041853803</v>
+        <v>53.12126041853806</v>
       </c>
       <c r="T25" t="n">
-        <v>75.44492119043898</v>
+        <v>75.444921190439</v>
       </c>
       <c r="U25" t="n">
         <v>129.8938494634649</v>
@@ -2536,13 +2536,13 @@
         <v>103.7161071259955</v>
       </c>
       <c r="W25" t="n">
-        <v>128.8829931966087</v>
+        <v>128.8829931966088</v>
       </c>
       <c r="X25" t="n">
-        <v>74.52809519241185</v>
+        <v>74.52809519241188</v>
       </c>
       <c r="Y25" t="n">
-        <v>96.57768410749065</v>
+        <v>65.40296294847957</v>
       </c>
     </row>
     <row r="26">
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>287.1570209103971</v>
+        <v>287.1570209103972</v>
       </c>
       <c r="C26" t="n">
-        <v>119.5645763858111</v>
+        <v>275.1683378680789</v>
       </c>
       <c r="D26" t="n">
         <v>266.1496419126069</v>
@@ -2567,13 +2567,13 @@
         <v>307.0635955704896</v>
       </c>
       <c r="G26" t="n">
-        <v>308.480115561202</v>
+        <v>302.2254139571029</v>
       </c>
       <c r="H26" t="n">
-        <v>221.2548339466273</v>
+        <v>221.2548339466274</v>
       </c>
       <c r="I26" t="n">
-        <v>48.22101991740958</v>
+        <v>48.22101991740963</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.6352094793517</v>
+        <v>70.63520947935174</v>
       </c>
       <c r="T26" t="n">
-        <v>116.9072096322337</v>
+        <v>116.9072096322338</v>
       </c>
       <c r="U26" t="n">
-        <v>149.3490598781673</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>230.6633981505763</v>
@@ -2621,7 +2621,7 @@
         <v>275.2637558612798</v>
       </c>
       <c r="Y26" t="n">
-        <v>286.6603536574785</v>
+        <v>286.6603536574786</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>127.1647304719571</v>
       </c>
       <c r="H27" t="n">
-        <v>96.26822063319645</v>
+        <v>96.26822063319646</v>
       </c>
       <c r="I27" t="n">
-        <v>58.17914945604763</v>
+        <v>58.17914945604764</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>42.02013387979839</v>
+        <v>42.02013387979842</v>
       </c>
       <c r="S27" t="n">
         <v>146.1359137023102</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.77373178509423</v>
+        <v>78.77373178509426</v>
       </c>
       <c r="C28" t="n">
-        <v>64.97372663049471</v>
+        <v>64.97372663049474</v>
       </c>
       <c r="D28" t="n">
-        <v>48.5950910280731</v>
+        <v>48.59509102807313</v>
       </c>
       <c r="E28" t="n">
-        <v>47.54284088385255</v>
+        <v>47.54284088385258</v>
       </c>
       <c r="F28" t="n">
-        <v>48.00976521203886</v>
+        <v>48.00976521203889</v>
       </c>
       <c r="G28" t="n">
-        <v>64.05267261211857</v>
+        <v>64.0526726121186</v>
       </c>
       <c r="H28" t="n">
-        <v>52.77196442698428</v>
+        <v>52.77196442698431</v>
       </c>
       <c r="I28" t="n">
-        <v>32.84421326131638</v>
+        <v>32.84421326131643</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.65811982303221</v>
+        <v>34.65811982303225</v>
       </c>
       <c r="S28" t="n">
         <v>104.5870214772624</v>
@@ -2767,10 +2767,10 @@
         <v>126.9106822491633</v>
       </c>
       <c r="U28" t="n">
-        <v>181.3596105221892</v>
+        <v>181.3596105221893</v>
       </c>
       <c r="V28" t="n">
-        <v>155.1818681847198</v>
+        <v>155.1818681847199</v>
       </c>
       <c r="W28" t="n">
         <v>180.3487542553331</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>287.1570209103972</v>
+        <v>287.1570209103971</v>
       </c>
       <c r="C29" t="n">
         <v>275.1683378680789</v>
@@ -2801,16 +2801,16 @@
         <v>287.8917794825124</v>
       </c>
       <c r="F29" t="n">
-        <v>151.4598340882212</v>
+        <v>307.0635955704896</v>
       </c>
       <c r="G29" t="n">
-        <v>308.4801155612021</v>
+        <v>152.8763540789365</v>
       </c>
       <c r="H29" t="n">
-        <v>221.2548339466274</v>
+        <v>221.2548339466273</v>
       </c>
       <c r="I29" t="n">
-        <v>48.22101991740963</v>
+        <v>48.22101991740961</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.63520947935174</v>
+        <v>70.63520947935172</v>
       </c>
       <c r="T29" t="n">
-        <v>116.9072096322338</v>
+        <v>116.9072096322337</v>
       </c>
       <c r="U29" t="n">
         <v>149.3490598781673</v>
@@ -2858,7 +2858,7 @@
         <v>275.2637558612798</v>
       </c>
       <c r="Y29" t="n">
-        <v>286.6603536574786</v>
+        <v>286.6603536574785</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.77373178509426</v>
+        <v>78.77373178509423</v>
       </c>
       <c r="C31" t="n">
-        <v>64.97372663049474</v>
+        <v>64.97372663049471</v>
       </c>
       <c r="D31" t="n">
-        <v>48.59509102807313</v>
+        <v>48.5950910280731</v>
       </c>
       <c r="E31" t="n">
-        <v>47.54284088385258</v>
+        <v>47.54284088385255</v>
       </c>
       <c r="F31" t="n">
-        <v>48.00976521203889</v>
+        <v>48.00976521203886</v>
       </c>
       <c r="G31" t="n">
-        <v>64.0526726121186</v>
+        <v>64.05267261211857</v>
       </c>
       <c r="H31" t="n">
-        <v>52.77196442698431</v>
+        <v>52.77196442698428</v>
       </c>
       <c r="I31" t="n">
-        <v>32.84421326131642</v>
+        <v>32.84421326131639</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.65811982303224</v>
+        <v>34.65811982303222</v>
       </c>
       <c r="S31" t="n">
         <v>104.5870214772624</v>
@@ -3004,10 +3004,10 @@
         <v>126.9106822491633</v>
       </c>
       <c r="U31" t="n">
-        <v>181.3596105221893</v>
+        <v>181.3596105221892</v>
       </c>
       <c r="V31" t="n">
-        <v>155.1818681847199</v>
+        <v>155.1818681847198</v>
       </c>
       <c r="W31" t="n">
         <v>180.3487542553331</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>274.1937327168593</v>
+        <v>274.1937327168594</v>
       </c>
       <c r="C32" t="n">
-        <v>262.205049674541</v>
+        <v>262.2050496745412</v>
       </c>
       <c r="D32" t="n">
-        <v>253.186353719069</v>
+        <v>253.1863537190691</v>
       </c>
       <c r="E32" t="n">
-        <v>274.9284912889746</v>
+        <v>274.9284912889747</v>
       </c>
       <c r="F32" t="n">
-        <v>294.1003073769517</v>
+        <v>294.1003073769518</v>
       </c>
       <c r="G32" t="n">
-        <v>295.5168273676642</v>
+        <v>295.5168273676643</v>
       </c>
       <c r="H32" t="n">
-        <v>208.2915457530895</v>
+        <v>208.2915457530896</v>
       </c>
       <c r="I32" t="n">
-        <v>35.25773172387176</v>
+        <v>35.25773172387186</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>57.67192128581385</v>
+        <v>57.67192128581395</v>
       </c>
       <c r="T32" t="n">
-        <v>103.9439214386959</v>
+        <v>103.943921438696</v>
       </c>
       <c r="U32" t="n">
-        <v>136.3857716846294</v>
+        <v>136.3857716846296</v>
       </c>
       <c r="V32" t="n">
-        <v>217.7001099570384</v>
+        <v>217.7001099570385</v>
       </c>
       <c r="W32" t="n">
-        <v>243.0002094349953</v>
+        <v>243.0002094349954</v>
       </c>
       <c r="X32" t="n">
-        <v>262.3004676677419</v>
+        <v>262.3004676677421</v>
       </c>
       <c r="Y32" t="n">
-        <v>273.6970654639407</v>
+        <v>273.6970654639408</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>65.81044359155638</v>
+        <v>65.81044359155648</v>
       </c>
       <c r="C34" t="n">
-        <v>52.01043843695686</v>
+        <v>52.01043843695696</v>
       </c>
       <c r="D34" t="n">
-        <v>35.63180283453525</v>
+        <v>35.63180283453535</v>
       </c>
       <c r="E34" t="n">
-        <v>34.5795526903147</v>
+        <v>34.5795526903148</v>
       </c>
       <c r="F34" t="n">
-        <v>35.04647701850101</v>
+        <v>35.04647701850111</v>
       </c>
       <c r="G34" t="n">
-        <v>51.08938441858074</v>
+        <v>51.08938441858083</v>
       </c>
       <c r="H34" t="n">
-        <v>39.80867623344643</v>
+        <v>39.80867623344653</v>
       </c>
       <c r="I34" t="n">
-        <v>19.88092506777854</v>
+        <v>19.88092506777864</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.69483162949437</v>
+        <v>21.69483162949447</v>
       </c>
       <c r="S34" t="n">
-        <v>91.62373328372452</v>
+        <v>91.62373328372462</v>
       </c>
       <c r="T34" t="n">
-        <v>113.9473940556255</v>
+        <v>113.9473940556256</v>
       </c>
       <c r="U34" t="n">
-        <v>168.3963223286514</v>
+        <v>168.3963223286515</v>
       </c>
       <c r="V34" t="n">
-        <v>142.218579991182</v>
+        <v>142.2185799911821</v>
       </c>
       <c r="W34" t="n">
-        <v>167.3854660617952</v>
+        <v>167.3854660617953</v>
       </c>
       <c r="X34" t="n">
-        <v>113.0305680575983</v>
+        <v>113.0305680575984</v>
       </c>
       <c r="Y34" t="n">
-        <v>103.905435813666</v>
+        <v>103.9054358136661</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>19.1694484206274</v>
+        <v>19.16944842062739</v>
       </c>
       <c r="T35" t="n">
         <v>65.44144857350943</v>
@@ -3427,7 +3427,7 @@
         <v>13.5079655717704</v>
       </c>
       <c r="D37" t="n">
-        <v>31.17472115901069</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>53.12126041853806</v>
+        <v>84.29598157754882</v>
       </c>
       <c r="T37" t="n">
         <v>75.444921190439</v>
@@ -3503,16 +3503,16 @@
         <v>235.6912598516728</v>
       </c>
       <c r="C38" t="n">
-        <v>223.7025768093546</v>
+        <v>223.7025768093545</v>
       </c>
       <c r="D38" t="n">
-        <v>214.6838808538826</v>
+        <v>214.6838808538825</v>
       </c>
       <c r="E38" t="n">
-        <v>236.4260184237881</v>
+        <v>236.426018423788</v>
       </c>
       <c r="F38" t="n">
-        <v>255.5978345117653</v>
+        <v>255.5978345117652</v>
       </c>
       <c r="G38" t="n">
         <v>257.0143545024777</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>19.1694484206274</v>
+        <v>19.1694484206273</v>
       </c>
       <c r="T38" t="n">
-        <v>65.44144857350943</v>
+        <v>65.44144857350935</v>
       </c>
       <c r="U38" t="n">
-        <v>97.88329881944298</v>
+        <v>97.8832988194429</v>
       </c>
       <c r="V38" t="n">
-        <v>179.197637091852</v>
+        <v>179.1976370918519</v>
       </c>
       <c r="W38" t="n">
-        <v>204.4977365698089</v>
+        <v>204.4977365698088</v>
       </c>
       <c r="X38" t="n">
-        <v>223.7979948025555</v>
+        <v>223.7979948025554</v>
       </c>
       <c r="Y38" t="n">
         <v>235.1945925987542</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>27.30797072636992</v>
+        <v>27.30797072636983</v>
       </c>
       <c r="C40" t="n">
-        <v>13.5079655717704</v>
+        <v>13.50796557177031</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>12.58691155339427</v>
+        <v>12.58691155339419</v>
       </c>
       <c r="H40" t="n">
-        <v>1.30620336825997</v>
+        <v>1.306203368259885</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>84.29598157754882</v>
+        <v>84.29598157754971</v>
       </c>
       <c r="T40" t="n">
-        <v>75.444921190439</v>
+        <v>75.44492119043892</v>
       </c>
       <c r="U40" t="n">
-        <v>129.8938494634649</v>
+        <v>129.8938494634648</v>
       </c>
       <c r="V40" t="n">
-        <v>103.7161071259955</v>
+        <v>103.7161071259954</v>
       </c>
       <c r="W40" t="n">
-        <v>128.8829931966088</v>
+        <v>128.8829931966087</v>
       </c>
       <c r="X40" t="n">
-        <v>74.52809519241188</v>
+        <v>74.5280951924118</v>
       </c>
       <c r="Y40" t="n">
-        <v>65.40296294847957</v>
+        <v>65.40296294847948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>235.6912598516728</v>
+        <v>235.6912598516727</v>
       </c>
       <c r="C41" t="n">
         <v>223.7025768093545</v>
       </c>
       <c r="D41" t="n">
-        <v>214.6838808538825</v>
+        <v>214.6838808538824</v>
       </c>
       <c r="E41" t="n">
         <v>236.426018423788</v>
       </c>
       <c r="F41" t="n">
-        <v>255.5978345117652</v>
+        <v>255.5978345117651</v>
       </c>
       <c r="G41" t="n">
-        <v>257.0143545024777</v>
+        <v>257.0143545024776</v>
       </c>
       <c r="H41" t="n">
-        <v>169.789072887903</v>
+        <v>169.7890728879029</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>19.16944842062732</v>
+        <v>19.16944842062728</v>
       </c>
       <c r="T41" t="n">
-        <v>65.44144857350935</v>
+        <v>65.44144857350932</v>
       </c>
       <c r="U41" t="n">
-        <v>97.8832988194429</v>
+        <v>97.88329881944287</v>
       </c>
       <c r="V41" t="n">
-        <v>179.1976370918519</v>
+        <v>179.1976370918518</v>
       </c>
       <c r="W41" t="n">
         <v>204.4977365698088</v>
@@ -3806,7 +3806,7 @@
         <v>223.7979948025554</v>
       </c>
       <c r="Y41" t="n">
-        <v>235.1945925987542</v>
+        <v>235.1945925987541</v>
       </c>
     </row>
     <row r="42">
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>27.30797072636983</v>
+        <v>27.3079707263698</v>
       </c>
       <c r="C43" t="n">
-        <v>13.50796557177031</v>
+        <v>13.50796557177028</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>12.58691155339419</v>
+        <v>12.58691155339416</v>
       </c>
       <c r="H43" t="n">
-        <v>1.306203368259885</v>
+        <v>32.48092452727192</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>84.29598157754971</v>
+        <v>53.12126041853794</v>
       </c>
       <c r="T43" t="n">
-        <v>75.44492119043892</v>
+        <v>75.44492119043889</v>
       </c>
       <c r="U43" t="n">
         <v>129.8938494634648</v>
@@ -3961,10 +3961,10 @@
         <v>128.8829931966087</v>
       </c>
       <c r="X43" t="n">
-        <v>74.5280951924118</v>
+        <v>74.52809519241177</v>
       </c>
       <c r="Y43" t="n">
-        <v>65.40296294847948</v>
+        <v>65.40296294847946</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>235.6912598516728</v>
+        <v>235.6912598516727</v>
       </c>
       <c r="C44" t="n">
         <v>223.7025768093545</v>
       </c>
       <c r="D44" t="n">
-        <v>214.6838808538825</v>
+        <v>214.6838808538824</v>
       </c>
       <c r="E44" t="n">
         <v>236.426018423788</v>
       </c>
       <c r="F44" t="n">
-        <v>255.5978345117652</v>
+        <v>255.5978345117651</v>
       </c>
       <c r="G44" t="n">
-        <v>257.0143545024777</v>
+        <v>257.0143545024776</v>
       </c>
       <c r="H44" t="n">
-        <v>169.789072887903</v>
+        <v>169.7890728879029</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>19.1694484206273</v>
+        <v>19.16944842062864</v>
       </c>
       <c r="T44" t="n">
-        <v>65.44144857350935</v>
+        <v>65.44144857350932</v>
       </c>
       <c r="U44" t="n">
-        <v>97.88329881944435</v>
+        <v>97.88329881944287</v>
       </c>
       <c r="V44" t="n">
-        <v>179.1976370918519</v>
+        <v>179.1976370918518</v>
       </c>
       <c r="W44" t="n">
         <v>204.4977365698088</v>
@@ -4043,7 +4043,7 @@
         <v>223.7979948025554</v>
       </c>
       <c r="Y44" t="n">
-        <v>235.1945925987542</v>
+        <v>235.1945925987541</v>
       </c>
     </row>
     <row r="45">
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>58.48269188538159</v>
+        <v>27.3079707263698</v>
       </c>
       <c r="C46" t="n">
-        <v>13.50796557177031</v>
+        <v>13.50796557177028</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>12.58691155339419</v>
+        <v>12.58691155339416</v>
       </c>
       <c r="H46" t="n">
-        <v>1.306203368259885</v>
+        <v>1.306203368259856</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,10 +4183,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>53.12126041853797</v>
+        <v>53.12126041853794</v>
       </c>
       <c r="T46" t="n">
-        <v>75.44492119043892</v>
+        <v>75.44492119043889</v>
       </c>
       <c r="U46" t="n">
         <v>129.8938494634648</v>
@@ -4195,13 +4195,13 @@
         <v>103.7161071259954</v>
       </c>
       <c r="W46" t="n">
-        <v>128.8829931966087</v>
+        <v>160.0577143556207</v>
       </c>
       <c r="X46" t="n">
-        <v>74.5280951924118</v>
+        <v>74.52809519241177</v>
       </c>
       <c r="Y46" t="n">
-        <v>65.40296294847948</v>
+        <v>65.40296294847946</v>
       </c>
     </row>
   </sheetData>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="C8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="D8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="E8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="F8" t="n">
-        <v>10.91156095206012</v>
+        <v>19.81714183287421</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8007743026345088</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="H8" t="n">
-        <v>0.8007743026345088</v>
+        <v>9.70635518344859</v>
       </c>
       <c r="I8" t="n">
         <v>0.8007743026345088</v>
@@ -4805,49 +4805,49 @@
         <v>10.71035629773655</v>
       </c>
       <c r="K8" t="n">
-        <v>10.71035629773655</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="L8" t="n">
-        <v>10.71035629773655</v>
+        <v>30.52952028794065</v>
       </c>
       <c r="M8" t="n">
-        <v>20.21955114152135</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="N8" t="n">
-        <v>20.21955114152135</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="O8" t="n">
-        <v>20.21955114152135</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="P8" t="n">
-        <v>30.12913313662339</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="Q8" t="n">
         <v>40.03871513172544</v>
       </c>
       <c r="R8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="S8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="T8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="U8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="V8" t="n">
-        <v>40.03871513172544</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="W8" t="n">
         <v>29.92792848229982</v>
       </c>
       <c r="X8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="Y8" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
     </row>
     <row r="9">
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.91156095206012</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="C9" t="n">
-        <v>10.91156095206012</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="D9" t="n">
-        <v>10.91156095206012</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="E9" t="n">
         <v>10.91156095206012</v>
@@ -4884,19 +4884,19 @@
         <v>0.8007743026345088</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="L9" t="n">
-        <v>0.8007743026345088</v>
+        <v>20.6199382928386</v>
       </c>
       <c r="M9" t="n">
-        <v>10.71035629773655</v>
+        <v>30.52952028794065</v>
       </c>
       <c r="N9" t="n">
-        <v>20.6199382928386</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="O9" t="n">
-        <v>30.52952028794065</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="P9" t="n">
         <v>40.03871513172544</v>
@@ -4917,16 +4917,16 @@
         <v>29.92792848229982</v>
       </c>
       <c r="V9" t="n">
-        <v>21.02234760148574</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="W9" t="n">
-        <v>10.91156095206012</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="X9" t="n">
-        <v>10.91156095206012</v>
+        <v>29.92792848229982</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.91156095206012</v>
+        <v>29.92792848229982</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.70635518344859</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="C10" t="n">
-        <v>9.70635518344859</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="D10" t="n">
-        <v>9.70635518344859</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="E10" t="n">
-        <v>9.70635518344859</v>
+        <v>31.13313425091136</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8007743026345088</v>
+        <v>21.02234760148574</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="H10" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8007743026345088</v>
+        <v>10.91156095206012</v>
       </c>
       <c r="J10" t="n">
         <v>0.8007743026345088</v>
@@ -4966,16 +4966,16 @@
         <v>10.71035629773655</v>
       </c>
       <c r="L10" t="n">
-        <v>20.6199382928386</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="M10" t="n">
-        <v>30.52952028794065</v>
+        <v>10.71035629773655</v>
       </c>
       <c r="N10" t="n">
-        <v>40.03871513172544</v>
+        <v>20.21955114152135</v>
       </c>
       <c r="O10" t="n">
-        <v>40.03871513172544</v>
+        <v>30.12913313662339</v>
       </c>
       <c r="P10" t="n">
         <v>40.03871513172544</v>
@@ -4987,25 +4987,25 @@
         <v>40.03871513172544</v>
       </c>
       <c r="S10" t="n">
-        <v>29.92792848229982</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="T10" t="n">
-        <v>19.81714183287421</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="U10" t="n">
-        <v>19.81714183287421</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="V10" t="n">
-        <v>9.70635518344859</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="W10" t="n">
-        <v>9.70635518344859</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="X10" t="n">
-        <v>9.70635518344859</v>
+        <v>40.03871513172544</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.70635518344859</v>
+        <v>40.03871513172544</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1423.162413647406</v>
+        <v>1192.661746699462</v>
       </c>
       <c r="C11" t="n">
-        <v>1423.162413647406</v>
+        <v>1192.661746699462</v>
       </c>
       <c r="D11" t="n">
-        <v>1154.324391513459</v>
+        <v>923.8237245655157</v>
       </c>
       <c r="E11" t="n">
-        <v>863.5246142583965</v>
+        <v>633.0239473104526</v>
       </c>
       <c r="F11" t="n">
-        <v>634.4547755838995</v>
+        <v>322.858699259453</v>
       </c>
       <c r="G11" t="n">
         <v>322.858699259453</v>
       </c>
       <c r="H11" t="n">
-        <v>99.36896800023347</v>
+        <v>99.36896800023345</v>
       </c>
       <c r="I11" t="n">
         <v>50.66086707355705</v>
@@ -5045,13 +5045,13 @@
         <v>471.2944815346004</v>
       </c>
       <c r="L11" t="n">
-        <v>899.9110829548169</v>
+        <v>737.7610900465928</v>
       </c>
       <c r="M11" t="n">
-        <v>1382.979295973271</v>
+        <v>1220.829303065047</v>
       </c>
       <c r="N11" t="n">
-        <v>1852.593229316393</v>
+        <v>1690.443236408169</v>
       </c>
       <c r="O11" t="n">
         <v>2081.643367659035</v>
@@ -5081,10 +5081,10 @@
         <v>1701.206611487082</v>
       </c>
       <c r="X11" t="n">
-        <v>1423.162413647406</v>
+        <v>1701.206611487082</v>
       </c>
       <c r="Y11" t="n">
-        <v>1423.162413647406</v>
+        <v>1411.650698701751</v>
       </c>
     </row>
     <row r="12">
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>917.3816520691811</v>
+        <v>917.3816520691813</v>
       </c>
       <c r="C12" t="n">
-        <v>755.6779793101359</v>
+        <v>755.677979310136</v>
       </c>
       <c r="D12" t="n">
         <v>616.8393423003481</v>
@@ -5109,7 +5109,7 @@
         <v>335.1175343070936</v>
       </c>
       <c r="G12" t="n">
-        <v>206.6683116081472</v>
+        <v>206.6683116081471</v>
       </c>
       <c r="H12" t="n">
         <v>109.4276847059284</v>
@@ -5118,34 +5118,34 @@
         <v>50.66086707355705</v>
       </c>
       <c r="J12" t="n">
-        <v>50.66086707355705</v>
+        <v>136.7755188469892</v>
       </c>
       <c r="K12" t="n">
-        <v>324.3511420901351</v>
+        <v>410.4657938635672</v>
       </c>
       <c r="L12" t="n">
-        <v>749.6049686874054</v>
+        <v>835.7196204608375</v>
       </c>
       <c r="M12" t="n">
-        <v>1303.992641297657</v>
+        <v>1390.107293071089</v>
       </c>
       <c r="N12" t="n">
-        <v>1721.354163673467</v>
+        <v>1528.642459401337</v>
       </c>
       <c r="O12" t="n">
-        <v>2178.67898460162</v>
+        <v>1985.96728032949</v>
       </c>
       <c r="P12" t="n">
-        <v>2533.043353677852</v>
+        <v>2340.331649405722</v>
       </c>
       <c r="Q12" t="n">
-        <v>2533.043353677852</v>
+        <v>2533.043353677851</v>
       </c>
       <c r="R12" t="n">
-        <v>2490.598774001288</v>
+        <v>2490.598774001287</v>
       </c>
       <c r="S12" t="n">
-        <v>2342.986739958551</v>
+        <v>2342.98673995855</v>
       </c>
       <c r="T12" t="n">
         <v>2155.427319537998</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>413.0752853108085</v>
+        <v>413.0752853108082</v>
       </c>
       <c r="C13" t="n">
-        <v>347.4452584113188</v>
+        <v>347.4452584113186</v>
       </c>
       <c r="D13" t="n">
-        <v>298.3593078779115</v>
+        <v>298.3593078779114</v>
       </c>
       <c r="E13" t="n">
         <v>250.3362362780604</v>
       </c>
       <c r="F13" t="n">
-        <v>201.8415239426676</v>
+        <v>201.8415239426674</v>
       </c>
       <c r="G13" t="n">
-        <v>137.1418546374973</v>
+        <v>137.1418546374971</v>
       </c>
       <c r="H13" t="n">
-        <v>83.83684006478578</v>
+        <v>83.83684006478575</v>
       </c>
       <c r="I13" t="n">
         <v>50.66086707355705</v>
@@ -5203,16 +5203,16 @@
         <v>272.1213478146426</v>
       </c>
       <c r="L13" t="n">
-        <v>508.7620757513876</v>
+        <v>508.7620757513874</v>
       </c>
       <c r="M13" t="n">
-        <v>764.6438247809408</v>
+        <v>764.6438247809406</v>
       </c>
       <c r="N13" t="n">
         <v>1020.099084697013</v>
       </c>
       <c r="O13" t="n">
-        <v>1252.91493646871</v>
+        <v>1252.914936468709</v>
       </c>
       <c r="P13" t="n">
         <v>1445.554287164523</v>
@@ -5221,10 +5221,10 @@
         <v>1528.916061629126</v>
       </c>
       <c r="R13" t="n">
-        <v>1493.907859787679</v>
+        <v>1493.90785978768</v>
       </c>
       <c r="S13" t="n">
-        <v>1388.26440375004</v>
+        <v>1388.264403750041</v>
       </c>
       <c r="T13" t="n">
         <v>1260.071795417552</v>
@@ -5242,7 +5242,7 @@
         <v>610.6939275252507</v>
       </c>
       <c r="Y13" t="n">
-        <v>492.6447113563582</v>
+        <v>492.644711356358</v>
       </c>
     </row>
     <row r="14">
@@ -5252,49 +5252,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1513.367616918325</v>
+        <v>1558.715907793051</v>
       </c>
       <c r="C14" t="n">
-        <v>1235.419800889963</v>
+        <v>1280.768091764689</v>
       </c>
       <c r="D14" t="n">
-        <v>1235.419800889963</v>
+        <v>1011.930069630742</v>
       </c>
       <c r="E14" t="n">
-        <v>944.6200236348996</v>
+        <v>721.1302923756793</v>
       </c>
       <c r="F14" t="n">
-        <v>634.4547755838998</v>
+        <v>410.9650443246799</v>
       </c>
       <c r="G14" t="n">
-        <v>322.8586992594533</v>
+        <v>99.36896800023341</v>
       </c>
       <c r="H14" t="n">
-        <v>99.36896800023345</v>
+        <v>99.36896800023341</v>
       </c>
       <c r="I14" t="n">
         <v>50.66086707355705</v>
       </c>
       <c r="J14" t="n">
-        <v>50.66086707355705</v>
+        <v>166.0791606670264</v>
       </c>
       <c r="K14" t="n">
-        <v>355.876187941131</v>
+        <v>471.2944815346004</v>
       </c>
       <c r="L14" t="n">
-        <v>784.4927893613475</v>
+        <v>737.7610900465925</v>
       </c>
       <c r="M14" t="n">
-        <v>1267.561002379801</v>
+        <v>1220.829303065047</v>
       </c>
       <c r="N14" t="n">
-        <v>1737.174935722924</v>
+        <v>1690.443236408169</v>
       </c>
       <c r="O14" t="n">
-        <v>2128.37506697379</v>
+        <v>2081.643367659035</v>
       </c>
       <c r="P14" t="n">
-        <v>2430.097868400439</v>
+        <v>2383.366169085684</v>
       </c>
       <c r="Q14" t="n">
         <v>2533.043353677852</v>
@@ -5303,25 +5303,25 @@
         <v>2533.043353677852</v>
       </c>
       <c r="S14" t="n">
-        <v>2461.694657234063</v>
+        <v>2502.953096459239</v>
       </c>
       <c r="T14" t="n">
-        <v>2343.606566696453</v>
+        <v>2384.865005921628</v>
       </c>
       <c r="U14" t="n">
-        <v>2192.74893045588</v>
+        <v>2384.865005921628</v>
       </c>
       <c r="V14" t="n">
-        <v>2192.74893045588</v>
+        <v>2384.865005921628</v>
       </c>
       <c r="W14" t="n">
-        <v>1934.19994295231</v>
+        <v>2126.31601841806</v>
       </c>
       <c r="X14" t="n">
-        <v>1934.19994295231</v>
+        <v>1848.271820578383</v>
       </c>
       <c r="Y14" t="n">
-        <v>1803.425213797514</v>
+        <v>1558.715907793051</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>917.3816520691813</v>
+        <v>917.3816520691811</v>
       </c>
       <c r="C15" t="n">
-        <v>755.677979310136</v>
+        <v>755.6779793101359</v>
       </c>
       <c r="D15" t="n">
         <v>616.8393423003481</v>
@@ -5346,7 +5346,7 @@
         <v>335.1175343070936</v>
       </c>
       <c r="G15" t="n">
-        <v>206.6683116081471</v>
+        <v>206.6683116081472</v>
       </c>
       <c r="H15" t="n">
         <v>109.4276847059284</v>
@@ -5355,34 +5355,34 @@
         <v>50.66086707355705</v>
       </c>
       <c r="J15" t="n">
-        <v>50.66086707355705</v>
+        <v>136.7755188469892</v>
       </c>
       <c r="K15" t="n">
-        <v>324.3511420901351</v>
+        <v>410.4657938635672</v>
       </c>
       <c r="L15" t="n">
-        <v>749.6049686874054</v>
+        <v>835.7196204608376</v>
       </c>
       <c r="M15" t="n">
-        <v>1303.992641297657</v>
+        <v>1390.107293071089</v>
       </c>
       <c r="N15" t="n">
-        <v>1721.354163673466</v>
+        <v>1972.562860750596</v>
       </c>
       <c r="O15" t="n">
-        <v>2178.67898460162</v>
+        <v>1985.967280329491</v>
       </c>
       <c r="P15" t="n">
-        <v>2533.043353677851</v>
+        <v>2340.331649405723</v>
       </c>
       <c r="Q15" t="n">
-        <v>2533.043353677851</v>
+        <v>2533.043353677852</v>
       </c>
       <c r="R15" t="n">
-        <v>2490.598774001287</v>
+        <v>2490.598774001288</v>
       </c>
       <c r="S15" t="n">
-        <v>2342.98673995855</v>
+        <v>2342.986739958551</v>
       </c>
       <c r="T15" t="n">
         <v>2155.427319537998</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>413.0752853108079</v>
+        <v>413.0752853108082</v>
       </c>
       <c r="C16" t="n">
-        <v>347.4452584113183</v>
+        <v>347.4452584113186</v>
       </c>
       <c r="D16" t="n">
-        <v>298.359307877911</v>
+        <v>298.3593078779114</v>
       </c>
       <c r="E16" t="n">
-        <v>250.3362362780599</v>
+        <v>250.3362362780604</v>
       </c>
       <c r="F16" t="n">
-        <v>201.8415239426671</v>
+        <v>201.8415239426674</v>
       </c>
       <c r="G16" t="n">
-        <v>137.1418546374967</v>
+        <v>137.1418546374973</v>
       </c>
       <c r="H16" t="n">
-        <v>83.83684006478529</v>
+        <v>83.83684006478572</v>
       </c>
       <c r="I16" t="n">
         <v>50.66086707355705</v>
       </c>
       <c r="J16" t="n">
-        <v>109.9394398374238</v>
+        <v>109.9394398374236</v>
       </c>
       <c r="K16" t="n">
-        <v>272.1213478146425</v>
+        <v>272.1213478146424</v>
       </c>
       <c r="L16" t="n">
-        <v>508.7620757513874</v>
+        <v>508.7620757513871</v>
       </c>
       <c r="M16" t="n">
-        <v>764.6438247809406</v>
+        <v>764.6438247809403</v>
       </c>
       <c r="N16" t="n">
         <v>1020.099084697013</v>
@@ -5470,16 +5470,16 @@
         <v>1076.880269637563</v>
       </c>
       <c r="V16" t="n">
-        <v>920.1309078348156</v>
+        <v>920.1309078348155</v>
       </c>
       <c r="W16" t="n">
         <v>737.9604489910448</v>
       </c>
       <c r="X16" t="n">
-        <v>610.6939275252505</v>
+        <v>610.6939275252507</v>
       </c>
       <c r="Y16" t="n">
-        <v>492.6447113563577</v>
+        <v>492.644711356358</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1421.583834739386</v>
+        <v>1259.433841831163</v>
       </c>
       <c r="C17" t="n">
-        <v>1195.621635942059</v>
+        <v>1195.621635942058</v>
       </c>
       <c r="D17" t="n">
-        <v>978.7692310391469</v>
+        <v>978.7692310391467</v>
       </c>
       <c r="E17" t="n">
-        <v>739.9550710151185</v>
+        <v>739.9550710151184</v>
       </c>
       <c r="F17" t="n">
         <v>481.7754401951536</v>
@@ -5513,16 +5513,16 @@
         <v>50.66086707355705</v>
       </c>
       <c r="J17" t="n">
-        <v>50.66086707355705</v>
+        <v>166.0791606670264</v>
       </c>
       <c r="K17" t="n">
-        <v>309.1444886263762</v>
+        <v>471.2944815346004</v>
       </c>
       <c r="L17" t="n">
-        <v>737.7610900465927</v>
+        <v>899.9110829548169</v>
       </c>
       <c r="M17" t="n">
-        <v>1220.829303065047</v>
+        <v>1382.979295973271</v>
       </c>
       <c r="N17" t="n">
         <v>1690.443236408169</v>
@@ -5540,10 +5540,10 @@
         <v>2533.043353677852</v>
       </c>
       <c r="S17" t="n">
-        <v>2513.680274465097</v>
+        <v>2513.680274465098</v>
       </c>
       <c r="T17" t="n">
-        <v>2447.577801158522</v>
+        <v>2447.577801158523</v>
       </c>
       <c r="U17" t="n">
         <v>2348.705782148984</v>
@@ -5592,25 +5592,25 @@
         <v>50.66086707355705</v>
       </c>
       <c r="J18" t="n">
-        <v>50.66086707355705</v>
+        <v>136.7755188469892</v>
       </c>
       <c r="K18" t="n">
-        <v>324.3511420901351</v>
+        <v>410.4657938635672</v>
       </c>
       <c r="L18" t="n">
-        <v>749.6049686874054</v>
+        <v>835.7196204608376</v>
       </c>
       <c r="M18" t="n">
-        <v>1303.992641297657</v>
+        <v>1390.107293071089</v>
       </c>
       <c r="N18" t="n">
-        <v>1721.354163673466</v>
+        <v>1972.562860750596</v>
       </c>
       <c r="O18" t="n">
-        <v>2178.67898460162</v>
+        <v>1985.96728032949</v>
       </c>
       <c r="P18" t="n">
-        <v>2533.043353677851</v>
+        <v>2340.331649405722</v>
       </c>
       <c r="Q18" t="n">
         <v>2533.043353677851</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>78.33872615782428</v>
+        <v>109.828343490159</v>
       </c>
       <c r="C19" t="n">
-        <v>64.69431648936936</v>
+        <v>96.1839338217041</v>
       </c>
       <c r="D19" t="n">
-        <v>64.69431648936936</v>
+        <v>96.1839338217041</v>
       </c>
       <c r="E19" t="n">
-        <v>64.69431648936936</v>
+        <v>96.1839338217041</v>
       </c>
       <c r="F19" t="n">
-        <v>64.69431648936936</v>
+        <v>64.6943164893693</v>
       </c>
       <c r="G19" t="n">
-        <v>51.98026441523376</v>
+        <v>51.98026441523373</v>
       </c>
       <c r="H19" t="n">
         <v>50.66086707355705</v>
@@ -5674,49 +5674,49 @@
         <v>50.66086707355705</v>
       </c>
       <c r="K19" t="n">
-        <v>110.9261526704584</v>
+        <v>110.9261526704585</v>
       </c>
       <c r="L19" t="n">
-        <v>245.6502582268859</v>
+        <v>245.650258226886</v>
       </c>
       <c r="M19" t="n">
-        <v>399.6153848761218</v>
+        <v>399.6153848761219</v>
       </c>
       <c r="N19" t="n">
-        <v>553.154022411877</v>
+        <v>553.1540224118771</v>
       </c>
       <c r="O19" t="n">
-        <v>684.0532518032559</v>
+        <v>684.053251803256</v>
       </c>
       <c r="P19" t="n">
-        <v>774.775980118752</v>
+        <v>774.7759801187522</v>
       </c>
       <c r="Q19" t="n">
-        <v>774.775980118752</v>
+        <v>774.7759801187522</v>
       </c>
       <c r="R19" t="n">
-        <v>774.775980118752</v>
+        <v>774.7759801187522</v>
       </c>
       <c r="S19" t="n">
-        <v>689.6285239798135</v>
+        <v>721.1181413121481</v>
       </c>
       <c r="T19" t="n">
-        <v>613.42153287836</v>
+        <v>644.9111502106946</v>
       </c>
       <c r="U19" t="n">
-        <v>482.2156243294056</v>
+        <v>513.7052416617402</v>
       </c>
       <c r="V19" t="n">
-        <v>377.451879757693</v>
+        <v>408.9414970900276</v>
       </c>
       <c r="W19" t="n">
-        <v>247.2670381449569</v>
+        <v>278.7566554772915</v>
       </c>
       <c r="X19" t="n">
-        <v>171.9861339101975</v>
+        <v>203.4757512425321</v>
       </c>
       <c r="Y19" t="n">
-        <v>105.9225349723393</v>
+        <v>137.412152304674</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1421.583834739388</v>
+        <v>1421.583834739386</v>
       </c>
       <c r="C20" t="n">
-        <v>1195.62163594206</v>
+        <v>1195.621635942059</v>
       </c>
       <c r="D20" t="n">
-        <v>978.7692310391484</v>
+        <v>978.7692310391469</v>
       </c>
       <c r="E20" t="n">
-        <v>739.95507101512</v>
+        <v>739.9550710151186</v>
       </c>
       <c r="F20" t="n">
-        <v>481.7754401951551</v>
+        <v>481.7754401951537</v>
       </c>
       <c r="G20" t="n">
         <v>222.1649811017419</v>
@@ -5750,25 +5750,25 @@
         <v>50.66086707355705</v>
       </c>
       <c r="J20" t="n">
-        <v>50.66086707355705</v>
+        <v>166.0791606670264</v>
       </c>
       <c r="K20" t="n">
-        <v>355.876187941131</v>
+        <v>458.8216732185445</v>
       </c>
       <c r="L20" t="n">
-        <v>784.4927893613475</v>
+        <v>887.438274638761</v>
       </c>
       <c r="M20" t="n">
-        <v>1267.561002379801</v>
+        <v>1370.506487657215</v>
       </c>
       <c r="N20" t="n">
-        <v>1737.174935722924</v>
+        <v>1840.120421000338</v>
       </c>
       <c r="O20" t="n">
-        <v>2128.37506697379</v>
+        <v>2231.320552251203</v>
       </c>
       <c r="P20" t="n">
-        <v>2430.097868400439</v>
+        <v>2533.043353677852</v>
       </c>
       <c r="Q20" t="n">
         <v>2533.043353677852</v>
@@ -5777,10 +5777,10 @@
         <v>2533.043353677852</v>
       </c>
       <c r="S20" t="n">
-        <v>2513.680274465097</v>
+        <v>2513.680274465098</v>
       </c>
       <c r="T20" t="n">
-        <v>2447.577801158522</v>
+        <v>2447.577801158523</v>
       </c>
       <c r="U20" t="n">
         <v>2348.705782148984</v>
@@ -5838,7 +5838,7 @@
         <v>835.7196204608376</v>
       </c>
       <c r="M21" t="n">
-        <v>1390.107293071089</v>
+        <v>946.1868917218295</v>
       </c>
       <c r="N21" t="n">
         <v>1528.642459401337</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>78.33872615782428</v>
+        <v>78.3387261578242</v>
       </c>
       <c r="C22" t="n">
-        <v>64.69431648936936</v>
+        <v>64.6943164893693</v>
       </c>
       <c r="D22" t="n">
-        <v>64.69431648936936</v>
+        <v>64.6943164893693</v>
       </c>
       <c r="E22" t="n">
-        <v>64.69431648936936</v>
+        <v>64.6943164893693</v>
       </c>
       <c r="F22" t="n">
-        <v>64.69431648936936</v>
+        <v>64.6943164893693</v>
       </c>
       <c r="G22" t="n">
-        <v>51.98026441523376</v>
+        <v>51.98026441523373</v>
       </c>
       <c r="H22" t="n">
         <v>50.66086707355705</v>
@@ -5911,49 +5911,49 @@
         <v>50.66086707355705</v>
       </c>
       <c r="K22" t="n">
-        <v>110.9261526704584</v>
+        <v>110.9261526704585</v>
       </c>
       <c r="L22" t="n">
-        <v>245.6502582268859</v>
+        <v>245.650258226886</v>
       </c>
       <c r="M22" t="n">
-        <v>399.6153848761218</v>
+        <v>399.6153848761219</v>
       </c>
       <c r="N22" t="n">
-        <v>553.154022411877</v>
+        <v>553.1540224118771</v>
       </c>
       <c r="O22" t="n">
-        <v>684.0532518032559</v>
+        <v>684.053251803256</v>
       </c>
       <c r="P22" t="n">
-        <v>774.775980118752</v>
+        <v>774.7759801187522</v>
       </c>
       <c r="Q22" t="n">
-        <v>774.775980118752</v>
+        <v>774.7759801187522</v>
       </c>
       <c r="R22" t="n">
-        <v>774.775980118752</v>
+        <v>774.7759801187522</v>
       </c>
       <c r="S22" t="n">
-        <v>689.6285239798135</v>
+        <v>721.1181413121481</v>
       </c>
       <c r="T22" t="n">
-        <v>613.42153287836</v>
+        <v>644.9111502106946</v>
       </c>
       <c r="U22" t="n">
-        <v>482.2156243294056</v>
+        <v>513.7052416617402</v>
       </c>
       <c r="V22" t="n">
-        <v>377.451879757693</v>
+        <v>408.9414970900276</v>
       </c>
       <c r="W22" t="n">
-        <v>247.2670381449569</v>
+        <v>278.7566554772915</v>
       </c>
       <c r="X22" t="n">
-        <v>171.9861339101975</v>
+        <v>203.4757512425321</v>
       </c>
       <c r="Y22" t="n">
-        <v>105.9225349723393</v>
+        <v>105.9225349723392</v>
       </c>
     </row>
     <row r="23">
@@ -5969,31 +5969,31 @@
         <v>1198.930819470798</v>
       </c>
       <c r="D23" t="n">
-        <v>982.0784145678861</v>
+        <v>982.0784145678867</v>
       </c>
       <c r="E23" t="n">
-        <v>743.2642545438578</v>
+        <v>743.2642545438582</v>
       </c>
       <c r="F23" t="n">
-        <v>485.0846237238929</v>
+        <v>485.0846237238934</v>
       </c>
       <c r="G23" t="n">
-        <v>225.4741646304812</v>
+        <v>225.4741646304813</v>
       </c>
       <c r="H23" t="n">
-        <v>53.9700506022963</v>
+        <v>53.97005060229633</v>
       </c>
       <c r="I23" t="n">
-        <v>53.9700506022963</v>
+        <v>53.97005060229633</v>
       </c>
       <c r="J23" t="n">
-        <v>169.3883441957655</v>
+        <v>169.388344195766</v>
       </c>
       <c r="K23" t="n">
-        <v>474.6036650633396</v>
+        <v>474.6036650633398</v>
       </c>
       <c r="L23" t="n">
-        <v>903.2202664835561</v>
+        <v>903.2202664835563</v>
       </c>
       <c r="M23" t="n">
         <v>1386.28847950201</v>
@@ -6002,22 +6002,22 @@
         <v>1855.902412845133</v>
       </c>
       <c r="O23" t="n">
-        <v>2247.102544095998</v>
+        <v>2247.102544095999</v>
       </c>
       <c r="P23" t="n">
-        <v>2548.825345522647</v>
+        <v>2548.825345522648</v>
       </c>
       <c r="Q23" t="n">
-        <v>2698.502530114815</v>
+        <v>2698.502530114816</v>
       </c>
       <c r="R23" t="n">
-        <v>2698.502530114815</v>
+        <v>2698.502530114816</v>
       </c>
       <c r="S23" t="n">
-        <v>2679.13945090206</v>
+        <v>2679.139450902062</v>
       </c>
       <c r="T23" t="n">
-        <v>2613.036977595485</v>
+        <v>2613.036977595486</v>
       </c>
       <c r="U23" t="n">
         <v>2514.164958585948</v>
@@ -6029,7 +6029,7 @@
         <v>2126.59387407922</v>
       </c>
       <c r="X23" t="n">
-        <v>1900.535293470577</v>
+        <v>1900.535293470578</v>
       </c>
       <c r="Y23" t="n">
         <v>1662.96499791628</v>
@@ -6063,19 +6063,19 @@
         <v>112.7368682346677</v>
       </c>
       <c r="I24" t="n">
-        <v>53.9700506022963</v>
+        <v>53.97005060229633</v>
       </c>
       <c r="J24" t="n">
-        <v>140.0847023757285</v>
+        <v>53.97005060229633</v>
       </c>
       <c r="K24" t="n">
-        <v>413.7749773923065</v>
+        <v>327.6603256188744</v>
       </c>
       <c r="L24" t="n">
-        <v>839.0288039895768</v>
+        <v>395.1084026403173</v>
       </c>
       <c r="M24" t="n">
-        <v>1393.416476599828</v>
+        <v>949.4960752505687</v>
       </c>
       <c r="N24" t="n">
         <v>1531.951642930076</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>81.64790968656354</v>
+        <v>113.1375270188977</v>
       </c>
       <c r="C25" t="n">
-        <v>68.00350001810861</v>
+        <v>99.49311735044273</v>
       </c>
       <c r="D25" t="n">
-        <v>68.00350001810861</v>
+        <v>99.49311735044273</v>
       </c>
       <c r="E25" t="n">
-        <v>68.00350001810861</v>
+        <v>99.49311735044273</v>
       </c>
       <c r="F25" t="n">
-        <v>68.00350001810861</v>
+        <v>99.49311735044273</v>
       </c>
       <c r="G25" t="n">
-        <v>55.28944794397302</v>
+        <v>55.28944794397307</v>
       </c>
       <c r="H25" t="n">
-        <v>53.9700506022963</v>
+        <v>53.97005060229633</v>
       </c>
       <c r="I25" t="n">
-        <v>53.9700506022963</v>
+        <v>53.97005060229633</v>
       </c>
       <c r="J25" t="n">
-        <v>53.9700506022963</v>
+        <v>53.97005060229633</v>
       </c>
       <c r="K25" t="n">
         <v>114.2353361991977</v>
@@ -6157,40 +6157,40 @@
         <v>402.9245684048611</v>
       </c>
       <c r="N25" t="n">
-        <v>556.4632059406163</v>
+        <v>556.4632059406164</v>
       </c>
       <c r="O25" t="n">
-        <v>687.3624353319951</v>
+        <v>687.3624353319952</v>
       </c>
       <c r="P25" t="n">
-        <v>778.0851636474913</v>
+        <v>778.0851636474914</v>
       </c>
       <c r="Q25" t="n">
-        <v>778.0851636474913</v>
+        <v>778.0851636474914</v>
       </c>
       <c r="R25" t="n">
-        <v>778.0851636474913</v>
+        <v>778.0851636474914</v>
       </c>
       <c r="S25" t="n">
-        <v>724.4273248408872</v>
+        <v>724.4273248408873</v>
       </c>
       <c r="T25" t="n">
         <v>648.2203337394337</v>
       </c>
       <c r="U25" t="n">
-        <v>517.0144251904793</v>
+        <v>517.0144251904792</v>
       </c>
       <c r="V25" t="n">
-        <v>412.2506806187667</v>
+        <v>412.2506806187665</v>
       </c>
       <c r="W25" t="n">
-        <v>282.0658390060306</v>
+        <v>282.0658390060304</v>
       </c>
       <c r="X25" t="n">
-        <v>206.7849347712712</v>
+        <v>206.7849347712709</v>
       </c>
       <c r="Y25" t="n">
-        <v>109.2317185010786</v>
+        <v>140.7213358334128</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1640.978718697814</v>
+        <v>1791.836354938389</v>
       </c>
       <c r="C26" t="n">
-        <v>1520.206419318207</v>
+        <v>1513.888538910027</v>
       </c>
       <c r="D26" t="n">
-        <v>1251.368397184261</v>
+        <v>1245.05051677608</v>
       </c>
       <c r="E26" t="n">
-        <v>960.5686199291976</v>
+        <v>954.2507395210174</v>
       </c>
       <c r="F26" t="n">
-        <v>650.403371878198</v>
+        <v>644.0854914700178</v>
       </c>
       <c r="G26" t="n">
-        <v>338.8072955537515</v>
+        <v>338.8072955537522</v>
       </c>
       <c r="H26" t="n">
-        <v>115.317564294532</v>
+        <v>115.3175642945321</v>
       </c>
       <c r="I26" t="n">
-        <v>66.60946336785564</v>
+        <v>66.60946336785568</v>
       </c>
       <c r="J26" t="n">
-        <v>246.558268756612</v>
+        <v>283.9443793416424</v>
       </c>
       <c r="K26" t="n">
-        <v>551.7735896241861</v>
+        <v>691.0763225895337</v>
       </c>
       <c r="L26" t="n">
-        <v>1082.30681342472</v>
+        <v>1221.609546390067</v>
       </c>
       <c r="M26" t="n">
-        <v>1565.375026443174</v>
+        <v>1704.677759408522</v>
       </c>
       <c r="N26" t="n">
-        <v>2136.905582166614</v>
+        <v>2174.291692751644</v>
       </c>
       <c r="O26" t="n">
-        <v>2630.022335797797</v>
+        <v>2630.0223357978</v>
       </c>
       <c r="P26" t="n">
-        <v>3033.661759604764</v>
+        <v>3033.661759604766</v>
       </c>
       <c r="Q26" t="n">
-        <v>3285.25556657725</v>
+        <v>3285.255566577252</v>
       </c>
       <c r="R26" t="n">
-        <v>3330.473168392782</v>
+        <v>3330.473168392784</v>
       </c>
       <c r="S26" t="n">
-        <v>3259.124471948992</v>
+        <v>3259.124471948994</v>
       </c>
       <c r="T26" t="n">
-        <v>3141.036381411383</v>
+        <v>3141.036381411384</v>
       </c>
       <c r="U26" t="n">
-        <v>2990.178745170809</v>
+        <v>3141.036381411384</v>
       </c>
       <c r="V26" t="n">
-        <v>2757.18541370558</v>
+        <v>2908.043049946156</v>
       </c>
       <c r="W26" t="n">
-        <v>2498.636426202011</v>
+        <v>2649.494062442587</v>
       </c>
       <c r="X26" t="n">
-        <v>2220.592228362335</v>
+        <v>2371.449864602911</v>
       </c>
       <c r="Y26" t="n">
-        <v>1931.036315577003</v>
+        <v>2081.893951817578</v>
       </c>
     </row>
     <row r="27">
@@ -6288,31 +6288,31 @@
         <v>632.7879385946467</v>
       </c>
       <c r="E27" t="n">
-        <v>485.7599286515178</v>
+        <v>485.759928651518</v>
       </c>
       <c r="F27" t="n">
-        <v>351.0661306013922</v>
+        <v>351.0661306013923</v>
       </c>
       <c r="G27" t="n">
-        <v>222.6169079024456</v>
+        <v>222.6169079024457</v>
       </c>
       <c r="H27" t="n">
         <v>125.376281000227</v>
       </c>
       <c r="I27" t="n">
-        <v>66.60946336785564</v>
+        <v>66.60946336785568</v>
       </c>
       <c r="J27" t="n">
-        <v>152.7241151412878</v>
+        <v>66.60946336785568</v>
       </c>
       <c r="K27" t="n">
-        <v>426.4143901578659</v>
+        <v>340.2997383844337</v>
       </c>
       <c r="L27" t="n">
-        <v>851.6682167551364</v>
+        <v>765.5535649817041</v>
       </c>
       <c r="M27" t="n">
-        <v>1406.055889365388</v>
+        <v>1319.941237591955</v>
       </c>
       <c r="N27" t="n">
         <v>1544.591055695635</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>429.0238816051066</v>
+        <v>429.0238816051069</v>
       </c>
       <c r="C28" t="n">
-        <v>363.3938547056169</v>
+        <v>363.3938547056173</v>
       </c>
       <c r="D28" t="n">
-        <v>314.3079041722098</v>
+        <v>314.3079041722101</v>
       </c>
       <c r="E28" t="n">
-        <v>266.2848325723587</v>
+        <v>266.284832572359</v>
       </c>
       <c r="F28" t="n">
-        <v>217.7901202369659</v>
+        <v>217.7901202369662</v>
       </c>
       <c r="G28" t="n">
-        <v>153.0904509317957</v>
+        <v>153.0904509317959</v>
       </c>
       <c r="H28" t="n">
-        <v>99.78543635908433</v>
+        <v>99.7854363590844</v>
       </c>
       <c r="I28" t="n">
-        <v>66.60946336785564</v>
+        <v>66.60946336785568</v>
       </c>
       <c r="J28" t="n">
         <v>125.8880361317225</v>
       </c>
       <c r="K28" t="n">
-        <v>288.0699441089413</v>
+        <v>288.0699441089412</v>
       </c>
       <c r="L28" t="n">
-        <v>524.7106720456862</v>
+        <v>524.7106720456861</v>
       </c>
       <c r="M28" t="n">
         <v>780.5924210752394</v>
@@ -6415,19 +6415,19 @@
         <v>1276.020391711851</v>
       </c>
       <c r="U28" t="n">
-        <v>1092.828865931861</v>
+        <v>1092.828865931862</v>
       </c>
       <c r="V28" t="n">
-        <v>936.0795041291141</v>
+        <v>936.0795041291145</v>
       </c>
       <c r="W28" t="n">
-        <v>753.9090452853432</v>
+        <v>753.9090452853437</v>
       </c>
       <c r="X28" t="n">
-        <v>626.6425238195491</v>
+        <v>626.6425238195495</v>
       </c>
       <c r="Y28" t="n">
-        <v>508.5933076506563</v>
+        <v>508.5933076506567</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1640.978718697814</v>
+        <v>1640.978718697816</v>
       </c>
       <c r="C29" t="n">
-        <v>1363.030902669452</v>
+        <v>1363.030902669454</v>
       </c>
       <c r="D29" t="n">
-        <v>1094.192880535505</v>
+        <v>1094.192880535508</v>
       </c>
       <c r="E29" t="n">
-        <v>803.3931032804419</v>
+        <v>803.3931032804446</v>
       </c>
       <c r="F29" t="n">
-        <v>650.4033718781982</v>
+        <v>493.227855229445</v>
       </c>
       <c r="G29" t="n">
-        <v>338.8072955537516</v>
+        <v>338.8072955537515</v>
       </c>
       <c r="H29" t="n">
         <v>115.317564294532</v>
       </c>
       <c r="I29" t="n">
-        <v>66.60946336785564</v>
+        <v>66.60946336785568</v>
       </c>
       <c r="J29" t="n">
-        <v>283.9443793416423</v>
+        <v>283.9443793416424</v>
       </c>
       <c r="K29" t="n">
-        <v>691.0763225895337</v>
+        <v>653.6902120045058</v>
       </c>
       <c r="L29" t="n">
-        <v>1221.609546390067</v>
+        <v>1082.306813424722</v>
       </c>
       <c r="M29" t="n">
-        <v>1806.594381788839</v>
+        <v>1667.291648823494</v>
       </c>
       <c r="N29" t="n">
-        <v>2340.738826927249</v>
+        <v>2238.822204546934</v>
       </c>
       <c r="O29" t="n">
-        <v>2833.855580558432</v>
+        <v>2731.938958178117</v>
       </c>
       <c r="P29" t="n">
-        <v>3135.578381985081</v>
+        <v>3135.578381985084</v>
       </c>
       <c r="Q29" t="n">
-        <v>3285.25556657725</v>
+        <v>3285.255566577252</v>
       </c>
       <c r="R29" t="n">
-        <v>3330.473168392782</v>
+        <v>3330.473168392784</v>
       </c>
       <c r="S29" t="n">
-        <v>3259.124471948992</v>
+        <v>3259.124471948994</v>
       </c>
       <c r="T29" t="n">
-        <v>3141.036381411382</v>
+        <v>3141.036381411384</v>
       </c>
       <c r="U29" t="n">
-        <v>2990.17874517081</v>
+        <v>2990.178745170812</v>
       </c>
       <c r="V29" t="n">
-        <v>2757.185413705581</v>
+        <v>2757.185413705583</v>
       </c>
       <c r="W29" t="n">
-        <v>2498.636426202012</v>
+        <v>2498.636426202014</v>
       </c>
       <c r="X29" t="n">
-        <v>2220.592228362335</v>
+        <v>2220.592228362338</v>
       </c>
       <c r="Y29" t="n">
-        <v>1931.036315577003</v>
+        <v>1931.036315577006</v>
       </c>
     </row>
     <row r="30">
@@ -6525,31 +6525,31 @@
         <v>632.7879385946467</v>
       </c>
       <c r="E30" t="n">
-        <v>485.7599286515178</v>
+        <v>485.759928651518</v>
       </c>
       <c r="F30" t="n">
-        <v>351.0661306013922</v>
+        <v>351.0661306013923</v>
       </c>
       <c r="G30" t="n">
-        <v>222.6169079024456</v>
+        <v>222.6169079024457</v>
       </c>
       <c r="H30" t="n">
         <v>125.376281000227</v>
       </c>
       <c r="I30" t="n">
-        <v>66.60946336785564</v>
+        <v>66.60946336785568</v>
       </c>
       <c r="J30" t="n">
-        <v>152.7241151412878</v>
+        <v>66.60946336785568</v>
       </c>
       <c r="K30" t="n">
-        <v>426.4143901578659</v>
+        <v>340.2997383844337</v>
       </c>
       <c r="L30" t="n">
-        <v>851.6682167551362</v>
+        <v>765.5535649817041</v>
       </c>
       <c r="M30" t="n">
-        <v>1406.055889365387</v>
+        <v>1319.941237591956</v>
       </c>
       <c r="N30" t="n">
         <v>1544.591055695635</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>429.0238816051069</v>
+        <v>429.0238816051067</v>
       </c>
       <c r="C31" t="n">
-        <v>363.3938547056172</v>
+        <v>363.3938547056171</v>
       </c>
       <c r="D31" t="n">
-        <v>314.30790417221</v>
+        <v>314.3079041722099</v>
       </c>
       <c r="E31" t="n">
-        <v>266.2848325723589</v>
+        <v>266.2848325723588</v>
       </c>
       <c r="F31" t="n">
         <v>217.7901202369661</v>
@@ -6613,25 +6613,25 @@
         <v>153.0904509317958</v>
       </c>
       <c r="H31" t="n">
-        <v>99.78543635908434</v>
+        <v>99.78543635908437</v>
       </c>
       <c r="I31" t="n">
-        <v>66.60946336785564</v>
+        <v>66.60946336785568</v>
       </c>
       <c r="J31" t="n">
         <v>125.8880361317225</v>
       </c>
       <c r="K31" t="n">
-        <v>288.0699441089412</v>
+        <v>288.0699441089413</v>
       </c>
       <c r="L31" t="n">
-        <v>524.7106720456861</v>
+        <v>524.7106720456862</v>
       </c>
       <c r="M31" t="n">
-        <v>780.5924210752395</v>
+        <v>780.5924210752388</v>
       </c>
       <c r="N31" t="n">
-        <v>1036.047680991312</v>
+        <v>1036.047680991311</v>
       </c>
       <c r="O31" t="n">
         <v>1268.863532763008</v>
@@ -6658,13 +6658,13 @@
         <v>936.0795041291145</v>
       </c>
       <c r="W31" t="n">
-        <v>753.9090452853437</v>
+        <v>753.9090452853436</v>
       </c>
       <c r="X31" t="n">
         <v>626.6425238195495</v>
       </c>
       <c r="Y31" t="n">
-        <v>508.5933076506566</v>
+        <v>508.5933076506564</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1705.693847554273</v>
+        <v>1705.693847554274</v>
       </c>
       <c r="C32" t="n">
-        <v>1440.840262024434</v>
+        <v>1440.840262024435</v>
       </c>
       <c r="D32" t="n">
-        <v>1185.09647038901</v>
+        <v>1185.096470389011</v>
       </c>
       <c r="E32" t="n">
-        <v>907.3909236324705</v>
+        <v>907.3909236324712</v>
       </c>
       <c r="F32" t="n">
-        <v>610.3199060799941</v>
+        <v>610.319906079995</v>
       </c>
       <c r="G32" t="n">
-        <v>311.8180602540706</v>
+        <v>311.8180602540715</v>
       </c>
       <c r="H32" t="n">
-        <v>101.4225594933744</v>
+        <v>101.4225594933746</v>
       </c>
       <c r="I32" t="n">
-        <v>65.80868906522113</v>
+        <v>65.80868906522117</v>
       </c>
       <c r="J32" t="n">
         <v>295.9772603506103</v>
       </c>
       <c r="K32" t="n">
-        <v>664.233498006686</v>
+        <v>715.9428589101041</v>
       </c>
       <c r="L32" t="n">
-        <v>1092.850099426902</v>
+        <v>1207.600377118825</v>
       </c>
       <c r="M32" t="n">
-        <v>1690.668590137277</v>
+        <v>1690.668590137279</v>
       </c>
       <c r="N32" t="n">
-        <v>2275.032801172319</v>
+        <v>2275.032801172321</v>
       </c>
       <c r="O32" t="n">
-        <v>2780.983210115105</v>
+        <v>2666.232932423187</v>
       </c>
       <c r="P32" t="n">
-        <v>3082.706011541753</v>
+        <v>2967.955733849836</v>
       </c>
       <c r="Q32" t="n">
-        <v>3232.383196133922</v>
+        <v>3232.383196133924</v>
       </c>
       <c r="R32" t="n">
-        <v>3290.434453261056</v>
+        <v>3290.434453261058</v>
       </c>
       <c r="S32" t="n">
-        <v>3232.17998731579</v>
+        <v>3232.179987315792</v>
       </c>
       <c r="T32" t="n">
-        <v>3127.186127276703</v>
+        <v>3127.186127276706</v>
       </c>
       <c r="U32" t="n">
-        <v>2989.422721534653</v>
+        <v>2989.422721534655</v>
       </c>
       <c r="V32" t="n">
-        <v>2769.523620567947</v>
+        <v>2769.523620567949</v>
       </c>
       <c r="W32" t="n">
-        <v>2524.068863562901</v>
+        <v>2524.068863562903</v>
       </c>
       <c r="X32" t="n">
-        <v>2259.118896221748</v>
+        <v>2259.118896221749</v>
       </c>
       <c r="Y32" t="n">
-        <v>1982.657213934939</v>
+        <v>1982.657213934941</v>
       </c>
     </row>
     <row r="33">
@@ -6768,19 +6768,19 @@
         <v>350.2653562987578</v>
       </c>
       <c r="G33" t="n">
-        <v>221.8161335998111</v>
+        <v>221.8161335998112</v>
       </c>
       <c r="H33" t="n">
         <v>124.5755066975925</v>
       </c>
       <c r="I33" t="n">
-        <v>65.80868906522113</v>
+        <v>65.80868906522117</v>
       </c>
       <c r="J33" t="n">
-        <v>151.9233408386533</v>
+        <v>151.9233408386534</v>
       </c>
       <c r="K33" t="n">
-        <v>425.6136158552313</v>
+        <v>425.6136158552314</v>
       </c>
       <c r="L33" t="n">
         <v>850.8674424525018</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>336.5634938128106</v>
+        <v>336.5634938128113</v>
       </c>
       <c r="C34" t="n">
-        <v>284.027697411844</v>
+        <v>284.0276974118447</v>
       </c>
       <c r="D34" t="n">
-        <v>248.0359773769599</v>
+        <v>248.0359773769605</v>
       </c>
       <c r="E34" t="n">
-        <v>213.107136275632</v>
+        <v>213.1071362756324</v>
       </c>
       <c r="F34" t="n">
-        <v>177.7066544387623</v>
+        <v>177.7066544387626</v>
       </c>
       <c r="G34" t="n">
-        <v>126.101215632115</v>
+        <v>126.1012156321153</v>
       </c>
       <c r="H34" t="n">
-        <v>85.89043155792673</v>
+        <v>85.89043155792687</v>
       </c>
       <c r="I34" t="n">
-        <v>65.80868906522113</v>
+        <v>65.80868906522117</v>
       </c>
       <c r="J34" t="n">
-        <v>137.9209171406905</v>
+        <v>137.9209171406904</v>
       </c>
       <c r="K34" t="n">
-        <v>198.1862027375919</v>
+        <v>312.9364804295116</v>
       </c>
       <c r="L34" t="n">
-        <v>332.9103082940194</v>
+        <v>447.6605859859391</v>
       </c>
       <c r="M34" t="n">
-        <v>518.9493375498253</v>
+        <v>601.625712635175</v>
       </c>
       <c r="N34" t="n">
-        <v>787.2382527775003</v>
+        <v>787.2382527775022</v>
       </c>
       <c r="O34" t="n">
-        <v>1032.887759860799</v>
+        <v>1032.887759860801</v>
       </c>
       <c r="P34" t="n">
-        <v>1238.360765868215</v>
+        <v>1238.360765868217</v>
       </c>
       <c r="Q34" t="n">
-        <v>1334.55619564442</v>
+        <v>1334.556195644422</v>
       </c>
       <c r="R34" t="n">
-        <v>1312.642224301497</v>
+        <v>1312.642224301498</v>
       </c>
       <c r="S34" t="n">
-        <v>1220.092998762381</v>
+        <v>1220.092998762383</v>
       </c>
       <c r="T34" t="n">
-        <v>1104.994620928416</v>
+        <v>1104.994620928417</v>
       </c>
       <c r="U34" t="n">
-        <v>934.89732564695</v>
+        <v>934.8973256469512</v>
       </c>
       <c r="V34" t="n">
-        <v>791.2421943427257</v>
+        <v>791.2421943427269</v>
       </c>
       <c r="W34" t="n">
-        <v>622.165965997478</v>
+        <v>622.165965997479</v>
       </c>
       <c r="X34" t="n">
-        <v>507.993675030207</v>
+        <v>507.9936750302079</v>
       </c>
       <c r="Y34" t="n">
-        <v>403.0386893598372</v>
+        <v>403.038689359838</v>
       </c>
     </row>
     <row r="35">
@@ -6917,13 +6917,13 @@
         <v>1198.930819470798</v>
       </c>
       <c r="D35" t="n">
-        <v>982.0784145678867</v>
+        <v>982.0784145678865</v>
       </c>
       <c r="E35" t="n">
-        <v>743.2642545438583</v>
+        <v>743.2642545438581</v>
       </c>
       <c r="F35" t="n">
-        <v>485.0846237238934</v>
+        <v>485.0846237238932</v>
       </c>
       <c r="G35" t="n">
         <v>225.4741646304813</v>
@@ -6935,13 +6935,13 @@
         <v>53.97005060229633</v>
       </c>
       <c r="J35" t="n">
-        <v>169.3883441957662</v>
+        <v>169.3883441957657</v>
       </c>
       <c r="K35" t="n">
-        <v>474.6036650633402</v>
+        <v>474.6036650633397</v>
       </c>
       <c r="L35" t="n">
-        <v>903.2202664835563</v>
+        <v>903.2202664835562</v>
       </c>
       <c r="M35" t="n">
         <v>1386.28847950201</v>
@@ -7014,22 +7014,22 @@
         <v>53.97005060229633</v>
       </c>
       <c r="J36" t="n">
-        <v>140.0847023757285</v>
+        <v>53.97005060229633</v>
       </c>
       <c r="K36" t="n">
-        <v>413.7749773923065</v>
+        <v>324.2189451192787</v>
       </c>
       <c r="L36" t="n">
-        <v>839.028803989577</v>
+        <v>749.4727717165491</v>
       </c>
       <c r="M36" t="n">
-        <v>949.4960752505687</v>
+        <v>1303.8604443268</v>
       </c>
       <c r="N36" t="n">
-        <v>1531.951642930076</v>
+        <v>1886.316012006308</v>
       </c>
       <c r="O36" t="n">
-        <v>1989.27646385823</v>
+        <v>2343.640832934461</v>
       </c>
       <c r="P36" t="n">
         <v>2343.640832934461</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>113.1375270188977</v>
+        <v>81.64790968656365</v>
       </c>
       <c r="C37" t="n">
-        <v>99.49311735044273</v>
+        <v>68.0035000181087</v>
       </c>
       <c r="D37" t="n">
         <v>68.0035000181087</v>
@@ -7120,25 +7120,25 @@
         <v>778.0851636474914</v>
       </c>
       <c r="S37" t="n">
-        <v>724.4273248408873</v>
+        <v>692.9377075085532</v>
       </c>
       <c r="T37" t="n">
-        <v>648.2203337394337</v>
+        <v>616.7307164070996</v>
       </c>
       <c r="U37" t="n">
-        <v>517.0144251904792</v>
+        <v>485.5248078581451</v>
       </c>
       <c r="V37" t="n">
-        <v>412.2506806187665</v>
+        <v>380.7610632864325</v>
       </c>
       <c r="W37" t="n">
-        <v>282.0658390060304</v>
+        <v>250.5762216736964</v>
       </c>
       <c r="X37" t="n">
-        <v>206.7849347712709</v>
+        <v>175.2953174389369</v>
       </c>
       <c r="Y37" t="n">
-        <v>140.7213358334128</v>
+        <v>109.2317185010787</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1424.893018268126</v>
+        <v>1424.893018268125</v>
       </c>
       <c r="C38" t="n">
-        <v>1198.930819470798</v>
+        <v>1198.930819470797</v>
       </c>
       <c r="D38" t="n">
-        <v>982.0784145678864</v>
+        <v>982.0784145678857</v>
       </c>
       <c r="E38" t="n">
-        <v>743.264254543858</v>
+        <v>743.2642545438574</v>
       </c>
       <c r="F38" t="n">
-        <v>485.0846237238931</v>
+        <v>485.0846237238925</v>
       </c>
       <c r="G38" t="n">
-        <v>225.4741646304813</v>
+        <v>225.4741646304811</v>
       </c>
       <c r="H38" t="n">
-        <v>53.97005060229633</v>
+        <v>53.9700506022963</v>
       </c>
       <c r="I38" t="n">
-        <v>53.97005060229633</v>
+        <v>53.9700506022963</v>
       </c>
       <c r="J38" t="n">
         <v>169.3883441957657</v>
@@ -7184,34 +7184,34 @@
         <v>1386.28847950201</v>
       </c>
       <c r="N38" t="n">
-        <v>1855.902412845133</v>
+        <v>1855.902412845132</v>
       </c>
       <c r="O38" t="n">
-        <v>2247.102544095999</v>
+        <v>2247.102544095998</v>
       </c>
       <c r="P38" t="n">
-        <v>2548.825345522648</v>
+        <v>2548.825345522647</v>
       </c>
       <c r="Q38" t="n">
-        <v>2698.502530114816</v>
+        <v>2698.502530114815</v>
       </c>
       <c r="R38" t="n">
-        <v>2698.502530114816</v>
+        <v>2698.502530114815</v>
       </c>
       <c r="S38" t="n">
-        <v>2679.139450902062</v>
+        <v>2679.139450902061</v>
       </c>
       <c r="T38" t="n">
-        <v>2613.036977595486</v>
+        <v>2613.036977595485</v>
       </c>
       <c r="U38" t="n">
-        <v>2514.164958585948</v>
+        <v>2514.164958585946</v>
       </c>
       <c r="V38" t="n">
         <v>2333.157244351753</v>
       </c>
       <c r="W38" t="n">
-        <v>2126.593874079219</v>
+        <v>2126.593874079218</v>
       </c>
       <c r="X38" t="n">
         <v>1900.535293470577</v>
@@ -7248,7 +7248,7 @@
         <v>112.7368682346677</v>
       </c>
       <c r="I39" t="n">
-        <v>53.97005060229633</v>
+        <v>53.9700506022963</v>
       </c>
       <c r="J39" t="n">
         <v>140.0847023757285</v>
@@ -7257,7 +7257,7 @@
         <v>413.7749773923065</v>
       </c>
       <c r="L39" t="n">
-        <v>839.028803989577</v>
+        <v>839.0288039895769</v>
       </c>
       <c r="M39" t="n">
         <v>1393.416476599828</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>81.64790968656365</v>
+        <v>81.64790968656337</v>
       </c>
       <c r="C40" t="n">
-        <v>68.0035000181087</v>
+        <v>68.0035000181085</v>
       </c>
       <c r="D40" t="n">
-        <v>68.0035000181087</v>
+        <v>68.0035000181085</v>
       </c>
       <c r="E40" t="n">
-        <v>68.0035000181087</v>
+        <v>68.0035000181085</v>
       </c>
       <c r="F40" t="n">
-        <v>68.0035000181087</v>
+        <v>68.0035000181085</v>
       </c>
       <c r="G40" t="n">
-        <v>55.28944794397307</v>
+        <v>55.28944794397295</v>
       </c>
       <c r="H40" t="n">
-        <v>53.97005060229633</v>
+        <v>53.9700506022963</v>
       </c>
       <c r="I40" t="n">
-        <v>53.97005060229633</v>
+        <v>53.9700506022963</v>
       </c>
       <c r="J40" t="n">
-        <v>53.97005060229633</v>
+        <v>53.9700506022963</v>
       </c>
       <c r="K40" t="n">
         <v>114.2353361991977</v>
@@ -7357,25 +7357,25 @@
         <v>778.0851636474914</v>
       </c>
       <c r="S40" t="n">
-        <v>692.9377075085532</v>
+        <v>692.9377075085523</v>
       </c>
       <c r="T40" t="n">
-        <v>616.7307164070996</v>
+        <v>616.7307164070988</v>
       </c>
       <c r="U40" t="n">
-        <v>485.5248078581451</v>
+        <v>485.5248078581444</v>
       </c>
       <c r="V40" t="n">
-        <v>380.7610632864325</v>
+        <v>380.7610632864319</v>
       </c>
       <c r="W40" t="n">
-        <v>250.5762216736964</v>
+        <v>250.5762216736958</v>
       </c>
       <c r="X40" t="n">
-        <v>175.2953174389369</v>
+        <v>175.2953174389364</v>
       </c>
       <c r="Y40" t="n">
-        <v>109.2317185010787</v>
+        <v>109.2317185010783</v>
       </c>
     </row>
     <row r="41">
@@ -7385,37 +7385,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1424.893018268127</v>
+        <v>1424.893018268126</v>
       </c>
       <c r="C41" t="n">
-        <v>1198.930819470799</v>
+        <v>1198.930819470798</v>
       </c>
       <c r="D41" t="n">
-        <v>982.0784145678872</v>
+        <v>982.0784145678865</v>
       </c>
       <c r="E41" t="n">
-        <v>743.2642545438589</v>
+        <v>743.2642545438582</v>
       </c>
       <c r="F41" t="n">
-        <v>485.0846237238941</v>
+        <v>485.0846237238933</v>
       </c>
       <c r="G41" t="n">
         <v>225.4741646304811</v>
       </c>
       <c r="H41" t="n">
-        <v>53.97005060229633</v>
+        <v>53.97005060229632</v>
       </c>
       <c r="I41" t="n">
-        <v>53.97005060229633</v>
+        <v>53.97005060229632</v>
       </c>
       <c r="J41" t="n">
-        <v>169.3883441957662</v>
+        <v>169.3883441957657</v>
       </c>
       <c r="K41" t="n">
-        <v>474.6036650633402</v>
+        <v>474.6036650633397</v>
       </c>
       <c r="L41" t="n">
-        <v>903.2202664835563</v>
+        <v>903.2202664835561</v>
       </c>
       <c r="M41" t="n">
         <v>1386.28847950201</v>
@@ -7442,19 +7442,19 @@
         <v>2613.036977595486</v>
       </c>
       <c r="U41" t="n">
-        <v>2514.164958585948</v>
+        <v>2514.164958585947</v>
       </c>
       <c r="V41" t="n">
-        <v>2333.157244351754</v>
+        <v>2333.157244351753</v>
       </c>
       <c r="W41" t="n">
-        <v>2126.59387407922</v>
+        <v>2126.593874079219</v>
       </c>
       <c r="X41" t="n">
-        <v>1900.535293470578</v>
+        <v>1900.535293470577</v>
       </c>
       <c r="Y41" t="n">
-        <v>1662.964997916281</v>
+        <v>1662.96499791628</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>112.7368682346677</v>
       </c>
       <c r="I42" t="n">
-        <v>53.97005060229633</v>
+        <v>53.97005060229632</v>
       </c>
       <c r="J42" t="n">
         <v>140.0847023757285</v>
@@ -7494,7 +7494,7 @@
         <v>413.7749773923065</v>
       </c>
       <c r="L42" t="n">
-        <v>839.028803989577</v>
+        <v>839.0288039895769</v>
       </c>
       <c r="M42" t="n">
         <v>1393.416476599828</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>81.64790968656339</v>
+        <v>113.1375270188987</v>
       </c>
       <c r="C43" t="n">
-        <v>68.00350001810853</v>
+        <v>99.49311735044387</v>
       </c>
       <c r="D43" t="n">
-        <v>68.00350001810853</v>
+        <v>99.49311735044387</v>
       </c>
       <c r="E43" t="n">
-        <v>68.00350001810853</v>
+        <v>99.49311735044387</v>
       </c>
       <c r="F43" t="n">
-        <v>68.00350001810853</v>
+        <v>99.49311735044387</v>
       </c>
       <c r="G43" t="n">
-        <v>55.28944794397297</v>
+        <v>86.77906527630836</v>
       </c>
       <c r="H43" t="n">
-        <v>53.97005060229633</v>
+        <v>53.97005060229632</v>
       </c>
       <c r="I43" t="n">
-        <v>53.97005060229633</v>
+        <v>53.97005060229632</v>
       </c>
       <c r="J43" t="n">
-        <v>53.97005060229633</v>
+        <v>53.97005060229632</v>
       </c>
       <c r="K43" t="n">
         <v>114.2353361991977</v>
@@ -7594,25 +7594,25 @@
         <v>778.0851636474914</v>
       </c>
       <c r="S43" t="n">
-        <v>692.9377075085523</v>
+        <v>724.4273248408874</v>
       </c>
       <c r="T43" t="n">
-        <v>616.7307164070988</v>
+        <v>648.220333739434</v>
       </c>
       <c r="U43" t="n">
-        <v>485.5248078581444</v>
+        <v>517.0144251904796</v>
       </c>
       <c r="V43" t="n">
-        <v>380.7610632864319</v>
+        <v>412.2506806187671</v>
       </c>
       <c r="W43" t="n">
-        <v>250.5762216736958</v>
+        <v>282.0658390060311</v>
       </c>
       <c r="X43" t="n">
-        <v>175.2953174389365</v>
+        <v>206.7849347712717</v>
       </c>
       <c r="Y43" t="n">
-        <v>109.2317185010784</v>
+        <v>140.7213358334137</v>
       </c>
     </row>
     <row r="44">
@@ -7628,43 +7628,43 @@
         <v>1198.930819470797</v>
       </c>
       <c r="D44" t="n">
-        <v>982.0784145678856</v>
+        <v>982.0784145678858</v>
       </c>
       <c r="E44" t="n">
-        <v>743.2642545438575</v>
+        <v>743.2642545438573</v>
       </c>
       <c r="F44" t="n">
-        <v>485.0846237238928</v>
+        <v>485.0846237238927</v>
       </c>
       <c r="G44" t="n">
         <v>225.4741646304811</v>
       </c>
       <c r="H44" t="n">
-        <v>53.97005060229633</v>
+        <v>53.97005060229632</v>
       </c>
       <c r="I44" t="n">
-        <v>53.97005060229633</v>
+        <v>53.97005060229632</v>
       </c>
       <c r="J44" t="n">
-        <v>169.3883441957659</v>
+        <v>169.3883441957655</v>
       </c>
       <c r="K44" t="n">
-        <v>474.6036650633399</v>
+        <v>474.6036650633396</v>
       </c>
       <c r="L44" t="n">
-        <v>903.2202664835563</v>
+        <v>903.2202664835559</v>
       </c>
       <c r="M44" t="n">
         <v>1386.28847950201</v>
       </c>
       <c r="N44" t="n">
-        <v>1855.902412845133</v>
+        <v>1855.902412845132</v>
       </c>
       <c r="O44" t="n">
-        <v>2247.102544095999</v>
+        <v>2247.102544095998</v>
       </c>
       <c r="P44" t="n">
-        <v>2548.825345522648</v>
+        <v>2548.825345522647</v>
       </c>
       <c r="Q44" t="n">
         <v>2698.502530114816</v>
@@ -7673,13 +7673,13 @@
         <v>2698.502530114816</v>
       </c>
       <c r="S44" t="n">
-        <v>2679.139450902062</v>
+        <v>2679.13945090206</v>
       </c>
       <c r="T44" t="n">
-        <v>2613.036977595486</v>
+        <v>2613.036977595485</v>
       </c>
       <c r="U44" t="n">
-        <v>2514.164958585947</v>
+        <v>2514.164958585946</v>
       </c>
       <c r="V44" t="n">
         <v>2333.157244351753</v>
@@ -7688,10 +7688,10 @@
         <v>2126.593874079218</v>
       </c>
       <c r="X44" t="n">
-        <v>1900.535293470576</v>
+        <v>1900.535293470577</v>
       </c>
       <c r="Y44" t="n">
-        <v>1662.964997916279</v>
+        <v>1662.96499791628</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>112.7368682346677</v>
       </c>
       <c r="I45" t="n">
-        <v>53.97005060229633</v>
+        <v>53.97005060229632</v>
       </c>
       <c r="J45" t="n">
         <v>140.0847023757285</v>
@@ -7731,10 +7731,10 @@
         <v>413.7749773923065</v>
       </c>
       <c r="L45" t="n">
-        <v>839.028803989577</v>
+        <v>839.0288039895769</v>
       </c>
       <c r="M45" t="n">
-        <v>1393.416476599828</v>
+        <v>949.4960752505687</v>
       </c>
       <c r="N45" t="n">
         <v>1531.951642930076</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>81.64790968656339</v>
+        <v>81.64790968656328</v>
       </c>
       <c r="C46" t="n">
-        <v>68.00350001810853</v>
+        <v>68.00350001810845</v>
       </c>
       <c r="D46" t="n">
-        <v>68.00350001810853</v>
+        <v>68.00350001810845</v>
       </c>
       <c r="E46" t="n">
-        <v>68.00350001810853</v>
+        <v>68.00350001810845</v>
       </c>
       <c r="F46" t="n">
-        <v>68.00350001810853</v>
+        <v>68.00350001810845</v>
       </c>
       <c r="G46" t="n">
-        <v>55.28944794397297</v>
+        <v>55.28944794397294</v>
       </c>
       <c r="H46" t="n">
-        <v>53.97005060229633</v>
+        <v>53.97005060229632</v>
       </c>
       <c r="I46" t="n">
-        <v>53.97005060229633</v>
+        <v>53.97005060229632</v>
       </c>
       <c r="J46" t="n">
-        <v>53.97005060229633</v>
+        <v>53.97005060229632</v>
       </c>
       <c r="K46" t="n">
         <v>114.2353361991977</v>
@@ -7837,19 +7837,19 @@
         <v>648.220333739434</v>
       </c>
       <c r="U46" t="n">
-        <v>517.0144251904795</v>
+        <v>517.0144251904796</v>
       </c>
       <c r="V46" t="n">
-        <v>412.250680618767</v>
+        <v>412.2506806187671</v>
       </c>
       <c r="W46" t="n">
-        <v>282.065839006031</v>
+        <v>250.5762216736956</v>
       </c>
       <c r="X46" t="n">
-        <v>206.7849347712716</v>
+        <v>175.2953174389363</v>
       </c>
       <c r="Y46" t="n">
-        <v>140.7213358334135</v>
+        <v>109.2317185010782</v>
       </c>
     </row>
   </sheetData>
@@ -8453,10 +8453,10 @@
         <v>157.109476210864</v>
       </c>
       <c r="K8" t="n">
-        <v>178.8230039740467</v>
+        <v>188.8326827569781</v>
       </c>
       <c r="L8" t="n">
-        <v>191.5602121631146</v>
+        <v>201.569890946046</v>
       </c>
       <c r="M8" t="n">
         <v>196.7615618141134</v>
@@ -8468,10 +8468,10 @@
         <v>186.9547967801205</v>
       </c>
       <c r="P8" t="n">
-        <v>197.8864878340879</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q8" t="n">
-        <v>190.6330518059216</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8532,22 +8532,22 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>122.005847949598</v>
       </c>
       <c r="L9" t="n">
-        <v>112.5754335711478</v>
+        <v>122.5851123540791</v>
       </c>
       <c r="M9" t="n">
         <v>125.4935813445713</v>
       </c>
       <c r="N9" t="n">
-        <v>116.7248198506397</v>
+        <v>116.3203883846626</v>
       </c>
       <c r="O9" t="n">
-        <v>125.8691273940425</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P9" t="n">
-        <v>118.4594533410977</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q9" t="n">
         <v>113.7351914448925</v>
@@ -8614,19 +8614,19 @@
         <v>114.8329510464913</v>
       </c>
       <c r="L10" t="n">
-        <v>119.6034782614375</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M10" t="n">
-        <v>122.8868782403605</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N10" t="n">
         <v>113.3497521949563</v>
       </c>
       <c r="O10" t="n">
-        <v>112.4959374921223</v>
+        <v>122.5056162750536</v>
       </c>
       <c r="P10" t="n">
-        <v>111.9040032899324</v>
+        <v>121.9136820728638</v>
       </c>
       <c r="Q10" t="n">
         <v>84.9458458910769</v>
@@ -8693,7 +8693,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L11" t="n">
-        <v>542.9595789155856</v>
+        <v>379.1717072911168</v>
       </c>
       <c r="M11" t="n">
         <v>584.3675935406823</v>
@@ -8702,7 +8702,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O11" t="n">
-        <v>331.2523640170999</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P11" t="n">
         <v>418.3383206229274</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>76.93384920169092</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -8778,7 +8778,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>456.3834247236932</v>
+        <v>174.7406408392869</v>
       </c>
       <c r="O12" t="n">
         <v>512.0210150597484</v>
@@ -8787,7 +8787,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>78.44218691303905</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8924,13 +8924,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>103.2414647807975</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K14" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L14" t="n">
-        <v>542.9595789155856</v>
+        <v>379.1717072911164</v>
       </c>
       <c r="M14" t="n">
         <v>584.3675935406823</v>
@@ -8945,7 +8945,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q14" t="n">
-        <v>228.8057511763059</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>76.93384920169092</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9015,16 +9015,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>456.3834247236923</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
-        <v>512.0210150597484</v>
+        <v>63.61656925241667</v>
       </c>
       <c r="P15" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>78.44218691303905</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>103.2414647807975</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>374.1852996609437</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
         <v>542.9595789155856</v>
@@ -9173,7 +9173,7 @@
         <v>584.3675935406823</v>
       </c>
       <c r="N17" t="n">
-        <v>568.5510017355793</v>
+        <v>404.7631301111103</v>
       </c>
       <c r="O17" t="n">
         <v>495.0402356415689</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>76.93384920169092</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9252,16 +9252,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>456.3834247236923</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
-        <v>512.0210150597484</v>
+        <v>63.61656925241575</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>78.44218691303905</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>103.2414647807975</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>421.3890363425141</v>
+        <v>408.7902400636698</v>
       </c>
       <c r="L20" t="n">
         <v>542.9595789155856</v>
@@ -9419,7 +9419,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q20" t="n">
-        <v>228.8057511763059</v>
+        <v>124.8204125122515</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9486,10 +9486,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>157.0121370676673</v>
       </c>
       <c r="N21" t="n">
-        <v>174.7406408392868</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9714,19 +9714,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>163.9183459425315</v>
+        <v>76.9338492016909</v>
       </c>
       <c r="K24" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L24" t="n">
-        <v>482.0924488944969</v>
+        <v>120.6724998280046</v>
       </c>
       <c r="M24" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
-        <v>174.7406408392868</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O24" t="n">
         <v>512.0210150597484</v>
@@ -9951,7 +9951,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>76.93384920169092</v>
       </c>
       <c r="K27" t="n">
         <v>343.8048081163522</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>174.740640839286</v>
+        <v>261.7251375801274</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -10188,7 +10188,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>163.9183459425315</v>
+        <v>76.9338492016909</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
@@ -10200,7 +10200,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>174.7406408392868</v>
+        <v>261.7251375801271</v>
       </c>
       <c r="O30" t="n">
         <v>512.0210150597484</v>
@@ -10662,16 +10662,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>76.9338492016909</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>340.3286661975687</v>
       </c>
       <c r="L36" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>157.012137067667</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
         <v>623.1450866466196</v>
@@ -10680,7 +10680,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>414.0015992319183</v>
+        <v>56.05779208420944</v>
       </c>
       <c r="Q36" t="n">
         <v>273.1004740566038</v>
@@ -10829,7 +10829,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M38" t="n">
-        <v>584.3675935406823</v>
+        <v>584.3675935406816</v>
       </c>
       <c r="N38" t="n">
         <v>568.5510017355793</v>
@@ -10841,7 +10841,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>276.0094878578763</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10911,7 +10911,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>174.7406408392864</v>
+        <v>174.7406408392866</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11148,7 +11148,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>174.7406408392864</v>
+        <v>174.7406408392866</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236961</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
         <v>421.3890363425141</v>
@@ -11382,10 +11382,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>605.4165828749999</v>
+        <v>157.0121370676671</v>
       </c>
       <c r="N45" t="n">
-        <v>174.7406408392864</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>287.1570209103972</v>
+        <v>70.35795842813175</v>
       </c>
       <c r="C11" t="n">
         <v>275.1683378680789</v>
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>80.2844552827376</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>308.4801155612021</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>275.2637558612798</v>
       </c>
       <c r="Y11" t="n">
-        <v>286.6603536574786</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.105427357601002e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>287.1570209103971</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>266.1496419126069</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>221.2548339466273</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.8458548329243</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>149.3490598781673</v>
       </c>
       <c r="V14" t="n">
         <v>230.6633981505763</v>
@@ -23558,10 +23558,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>275.2637558612798</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>157.1933717942305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23729,10 +23729,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>160.5284929791418</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>160.5284929791411</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>160.5284929791434</v>
+        <v>160.5284929791414</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>155.6037614822678</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>6.254701604099179</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24497,7 +24497,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>149.3490598781673</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24689,10 +24689,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>155.6037614822684</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>155.6037614822654</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -25919,7 +25919,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>-1.459632414935186e-12</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>852417.5479480606</v>
+        <v>852417.5479480608</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>915139.1811900603</v>
+        <v>915139.1811900606</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>919778.1822718155</v>
+        <v>919778.1822718157</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>932473.8931711537</v>
+        <v>932473.8931711535</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>555260.5578427954</v>
+      </c>
+      <c r="C2" t="n">
         <v>555260.5578427955</v>
-      </c>
-      <c r="C2" t="n">
-        <v>555260.5578427953</v>
       </c>
       <c r="D2" t="n">
         <v>556415.8749679218</v>
       </c>
       <c r="E2" t="n">
-        <v>502899.2624792359</v>
+        <v>502899.2624792361</v>
       </c>
       <c r="F2" t="n">
-        <v>502899.2624792363</v>
+        <v>502899.2624792358</v>
       </c>
       <c r="G2" t="n">
-        <v>547263.344528456</v>
+        <v>547263.3445284558</v>
       </c>
       <c r="H2" t="n">
-        <v>547263.3445284556</v>
+        <v>547263.3445284558</v>
       </c>
       <c r="I2" t="n">
         <v>556527.4438582821</v>
       </c>
       <c r="J2" t="n">
-        <v>547547.5507831402</v>
+        <v>547547.5507831406</v>
       </c>
       <c r="K2" t="n">
-        <v>547547.5507831406</v>
+        <v>547547.5507831404</v>
       </c>
       <c r="L2" t="n">
-        <v>556527.4438582801</v>
+        <v>556527.4438582803</v>
       </c>
       <c r="M2" t="n">
-        <v>556527.4438582819</v>
+        <v>556527.4438582821</v>
       </c>
       <c r="N2" t="n">
         <v>556527.4438582819</v>
       </c>
       <c r="O2" t="n">
-        <v>556527.4438582819</v>
+        <v>556527.4438582817</v>
       </c>
       <c r="P2" t="n">
-        <v>556527.4438582822</v>
+        <v>556527.4438582821</v>
       </c>
     </row>
     <row r="3">
@@ -26375,34 +26375,34 @@
         <v>371716.2099124421</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>41172.60884697951</v>
+        <v>41172.60884697948</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10999.76741432341</v>
+        <v>10999.76741432347</v>
       </c>
       <c r="J3" t="n">
-        <v>82522.08914337397</v>
+        <v>82522.08914337409</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>51543.23940180981</v>
+        <v>51543.23940180968</v>
       </c>
       <c r="M3" t="n">
         <v>149240.7095342775</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>41184.257722974</v>
+        <v>41184.25772297398</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>248538.7642586466</v>
       </c>
       <c r="F4" t="n">
-        <v>248538.7642586465</v>
+        <v>248538.7642586466</v>
       </c>
       <c r="G4" t="n">
         <v>283229.973127884</v>
@@ -26439,13 +26439,13 @@
         <v>287486.721638681</v>
       </c>
       <c r="J4" t="n">
-        <v>281292.5434672926</v>
+        <v>281292.5434672929</v>
       </c>
       <c r="K4" t="n">
         <v>281292.5434672927</v>
       </c>
       <c r="L4" t="n">
-        <v>288256.2251830105</v>
+        <v>288256.2251830106</v>
       </c>
       <c r="M4" t="n">
         <v>287486.721638681</v>
@@ -26479,7 +26479,7 @@
         <v>49959.02795660223</v>
       </c>
       <c r="F5" t="n">
-        <v>49959.02795660223</v>
+        <v>49959.02795660224</v>
       </c>
       <c r="G5" t="n">
         <v>54285.70302304813</v>
@@ -26488,22 +26488,22 @@
         <v>54285.70302304813</v>
       </c>
       <c r="I5" t="n">
-        <v>56800.68250488997</v>
+        <v>56800.68250488998</v>
       </c>
       <c r="J5" t="n">
-        <v>62079.96114026917</v>
+        <v>62079.96114026919</v>
       </c>
       <c r="K5" t="n">
-        <v>62079.96114026916</v>
+        <v>62079.9611402692</v>
       </c>
       <c r="L5" t="n">
-        <v>62561.18334540947</v>
+        <v>62561.1833454095</v>
       </c>
       <c r="M5" t="n">
         <v>56800.68250488998</v>
       </c>
       <c r="N5" t="n">
-        <v>56800.68250488998</v>
+        <v>56800.68250488997</v>
       </c>
       <c r="O5" t="n">
         <v>56800.68250488998</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>129100.0494496711</v>
+        <v>129095.6808772038</v>
       </c>
       <c r="C6" t="n">
-        <v>129100.0494496709</v>
+        <v>129095.680877204</v>
       </c>
       <c r="D6" t="n">
-        <v>126975.6823123292</v>
+        <v>126975.2975920176</v>
       </c>
       <c r="E6" t="n">
-        <v>-167314.739648455</v>
+        <v>-167499.6644118308</v>
       </c>
       <c r="F6" t="n">
-        <v>204401.4702639876</v>
+        <v>204216.545500611</v>
       </c>
       <c r="G6" t="n">
-        <v>168575.0595305444</v>
+        <v>168543.1143604413</v>
       </c>
       <c r="H6" t="n">
-        <v>209747.6683775235</v>
+        <v>209715.7232074208</v>
       </c>
       <c r="I6" t="n">
-        <v>201240.2723003877</v>
+        <v>201240.2723003876</v>
       </c>
       <c r="J6" t="n">
-        <v>121652.9570322044</v>
+        <v>121621.9918836695</v>
       </c>
       <c r="K6" t="n">
-        <v>204175.0461755788</v>
+        <v>204144.0810270435</v>
       </c>
       <c r="L6" t="n">
-        <v>154166.7959280503</v>
+        <v>154166.7959280506</v>
       </c>
       <c r="M6" t="n">
-        <v>62999.33018043345</v>
+        <v>62999.33018043368</v>
       </c>
       <c r="N6" t="n">
+        <v>212240.0397147109</v>
+      </c>
+      <c r="O6" t="n">
+        <v>171055.7819917367</v>
+      </c>
+      <c r="P6" t="n">
         <v>212240.039714711</v>
-      </c>
-      <c r="O6" t="n">
-        <v>171055.7819917369</v>
-      </c>
-      <c r="P6" t="n">
-        <v>212240.0397147112</v>
       </c>
     </row>
   </sheetData>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="F2" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="G2" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="H2" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="I2" t="n">
         <v>154.4118442711661</v>
@@ -26713,13 +26713,13 @@
         <v>102.9460832124418</v>
       </c>
       <c r="L2" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="M2" t="n">
         <v>154.4118442711661</v>
       </c>
       <c r="N2" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="O2" t="n">
         <v>154.4118442711662</v>
@@ -26747,19 +26747,19 @@
         <v>128.5410417941336</v>
       </c>
       <c r="F3" t="n">
+        <v>128.5410417941337</v>
+      </c>
+      <c r="G3" t="n">
+        <v>128.5410417941337</v>
+      </c>
+      <c r="H3" t="n">
+        <v>128.5410417941337</v>
+      </c>
+      <c r="I3" t="n">
+        <v>128.5410417941337</v>
+      </c>
+      <c r="J3" t="n">
         <v>128.5410417941336</v>
-      </c>
-      <c r="G3" t="n">
-        <v>128.5410417941336</v>
-      </c>
-      <c r="H3" t="n">
-        <v>128.5410417941336</v>
-      </c>
-      <c r="I3" t="n">
-        <v>128.5410417941336</v>
-      </c>
-      <c r="J3" t="n">
-        <v>128.5410417941338</v>
       </c>
       <c r="K3" t="n">
         <v>128.5410417941337</v>
@@ -26808,28 +26808,28 @@
         <v>633.2608384194631</v>
       </c>
       <c r="I4" t="n">
-        <v>674.6256325287038</v>
+        <v>674.625632528704</v>
       </c>
       <c r="J4" t="n">
-        <v>832.6182920981954</v>
+        <v>832.618292098196</v>
       </c>
       <c r="K4" t="n">
-        <v>832.6182920981954</v>
+        <v>832.618292098196</v>
       </c>
       <c r="L4" t="n">
-        <v>822.6086133152641</v>
+        <v>822.6086133152646</v>
       </c>
       <c r="M4" t="n">
         <v>674.625632528704</v>
       </c>
       <c r="N4" t="n">
-        <v>674.625632528704</v>
+        <v>674.6256325287038</v>
       </c>
       <c r="O4" t="n">
-        <v>674.625632528704</v>
+        <v>674.6256325287039</v>
       </c>
       <c r="P4" t="n">
-        <v>674.625632528704</v>
+        <v>674.6256325287039</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>51.46576105872438</v>
+        <v>51.46576105872435</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>51.48032215371741</v>
+        <v>51.48032215371744</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>64.42904925226226</v>
+        <v>64.4290492522621</v>
       </c>
       <c r="M2" t="n">
-        <v>38.50247286518646</v>
+        <v>38.50247286518656</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>51.48032215371749</v>
+        <v>51.48032215371747</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>41.36479410924073</v>
+        <v>41.36479410924096</v>
       </c>
       <c r="J4" t="n">
-        <v>157.9926595694916</v>
+        <v>157.9926595694919</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>475.2681788499717</v>
+        <v>475.2681788499712</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>51.46576105872438</v>
+        <v>51.46576105872435</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>51.48032215371741</v>
+        <v>51.48032215371744</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27871,7 +27871,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>171.0890268032919</v>
+        <v>162.272501731286</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>79.72222485617382</v>
       </c>
       <c r="S8" t="n">
         <v>185.3566856159496</v>
@@ -27913,10 +27913,10 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>348.8999020580436</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>369.3933140017156</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -27935,10 +27935,10 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>137.45025063969</v>
+        <v>128.6337255676841</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>135.5480510607661</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
@@ -27989,10 +27989,10 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>217.2951412541434</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
-        <v>228.8930312960917</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
@@ -28017,13 +28017,13 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>141.6723990242884</v>
       </c>
       <c r="F10" t="n">
-        <v>142.1393233524747</v>
+        <v>140.9461696415493</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>157.2208723628971</v>
       </c>
       <c r="H10" t="n">
         <v>157.7789187685189</v>
@@ -28032,7 +28032,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>49.44698741703764</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28059,16 +28059,16 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>201.5629861874179</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>220.8374848695466</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
-        <v>248.1182726142302</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
         <v>283.2948374677749</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="C11" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="D11" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="E11" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="F11" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="G11" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="H11" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="I11" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>57.27173794422781</v>
+        <v>57.27173794422782</v>
       </c>
       <c r="S11" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="T11" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="U11" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="V11" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="W11" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="X11" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="Y11" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="C13" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="D13" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="E13" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="F13" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="G13" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="H13" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="I13" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="J13" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="K13" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="L13" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="M13" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="N13" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="O13" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="P13" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="Q13" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="R13" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="S13" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="T13" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="U13" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="V13" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="W13" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="X13" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="Y13" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="C14" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="D14" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="E14" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="F14" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="G14" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="H14" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="I14" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>57.27173794422781</v>
+        <v>57.2717379442278</v>
       </c>
       <c r="S14" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="T14" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="U14" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="V14" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="W14" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="X14" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="Y14" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="C16" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="D16" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="E16" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="F16" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="G16" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="H16" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="I16" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="J16" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="K16" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="L16" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="M16" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="N16" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="O16" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="P16" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="Q16" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="R16" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="S16" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="T16" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="U16" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="V16" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="W16" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="X16" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="Y16" t="n">
-        <v>102.9460832124417</v>
+        <v>102.9460832124418</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="C17" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="D17" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="E17" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="F17" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="G17" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="H17" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="I17" t="n">
         <v>151.1671031298514</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>57.27173794422781</v>
+        <v>57.2717379442278</v>
       </c>
       <c r="S17" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="T17" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="U17" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="V17" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="W17" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="X17" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="Y17" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
     </row>
     <row r="18">
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="C19" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="D19" t="n">
         <v>151.5411742405149</v>
@@ -28731,13 +28731,13 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F19" t="n">
-        <v>150.9558484244806</v>
+        <v>119.7811272654692</v>
       </c>
       <c r="G19" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="H19" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="I19" t="n">
         <v>135.7902964737582</v>
@@ -28770,25 +28770,25 @@
         <v>137.604203035474</v>
       </c>
       <c r="S19" t="n">
-        <v>123.237123112155</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="T19" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="U19" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="V19" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="W19" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="X19" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="Y19" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="C20" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="D20" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="E20" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="F20" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="G20" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="H20" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="I20" t="n">
         <v>151.1671031298514</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>57.27173794422781</v>
+        <v>57.2717379442278</v>
       </c>
       <c r="S20" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="T20" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="U20" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="V20" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="W20" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="X20" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="Y20" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
     </row>
     <row r="21">
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="C22" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="D22" t="n">
         <v>151.5411742405149</v>
@@ -28971,10 +28971,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="H22" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="I22" t="n">
         <v>135.7902964737582</v>
@@ -29007,25 +29007,25 @@
         <v>137.604203035474</v>
       </c>
       <c r="S22" t="n">
-        <v>123.237123112155</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="T22" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="U22" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="V22" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="W22" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="X22" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="Y22" t="n">
-        <v>154.4118442711661</v>
+        <v>123.2371231121547</v>
       </c>
     </row>
     <row r="23">
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>57.27173794422781</v>
+        <v>57.2717379442278</v>
       </c>
       <c r="S23" t="n">
         <v>154.4118442711661</v>
@@ -29208,7 +29208,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
-        <v>154.4118442711661</v>
+        <v>123.2371231121554</v>
       </c>
       <c r="H25" t="n">
         <v>154.4118442711661</v>
@@ -29262,7 +29262,7 @@
         <v>154.4118442711661</v>
       </c>
       <c r="Y25" t="n">
-        <v>123.237123112155</v>
+        <v>154.4118442711661</v>
       </c>
     </row>
     <row r="26">
@@ -29296,10 +29296,10 @@
         <v>102.9460832124418</v>
       </c>
       <c r="J26" t="n">
-        <v>65.18233514675444</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="L26" t="n">
         <v>102.9460832124418</v>
@@ -29308,10 +29308,10 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>102.9460832124418</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>102.9460832124418</v>
+        <v>65.18233514675813</v>
       </c>
       <c r="P26" t="n">
         <v>102.9460832124418</v>
@@ -29536,22 +29536,22 @@
         <v>102.9460832124418</v>
       </c>
       <c r="K29" t="n">
-        <v>102.9460832124418</v>
+        <v>65.182335146757</v>
       </c>
       <c r="L29" t="n">
-        <v>102.9460832124418</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>102.9460832124418</v>
       </c>
       <c r="N29" t="n">
-        <v>65.18233514675546</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="O29" t="n">
         <v>102.9460832124418</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>102.9460832124418</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="C32" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="D32" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="E32" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="F32" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="G32" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="H32" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="I32" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="J32" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="K32" t="n">
-        <v>63.67769372575924</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>63.67769372576214</v>
       </c>
       <c r="M32" t="n">
-        <v>115.9093714059796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="O32" t="n">
-        <v>115.9093714059796</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="R32" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="S32" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="T32" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="U32" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="V32" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="W32" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="X32" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="Y32" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="C34" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="D34" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="E34" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="F34" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="G34" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="H34" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="I34" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="J34" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>32.39788142077776</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>115.9093714059796</v>
+        <v>32.39788142077981</v>
       </c>
       <c r="O34" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="P34" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="Q34" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="R34" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="S34" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="T34" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="U34" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="V34" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="W34" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="X34" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
       <c r="Y34" t="n">
-        <v>115.9093714059796</v>
+        <v>115.9093714059795</v>
       </c>
     </row>
     <row r="35">
@@ -30147,7 +30147,7 @@
         <v>154.4118442711661</v>
       </c>
       <c r="D37" t="n">
-        <v>120.3664530815042</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E37" t="n">
         <v>150.4889240962943</v>
@@ -30192,7 +30192,7 @@
         <v>137.604203035474</v>
       </c>
       <c r="S37" t="n">
-        <v>154.4118442711661</v>
+        <v>123.2371231121553</v>
       </c>
       <c r="T37" t="n">
         <v>154.4118442711661</v>
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="C38" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="D38" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="E38" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="F38" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="G38" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="H38" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="I38" t="n">
         <v>151.1671031298514</v>
@@ -30271,25 +30271,25 @@
         <v>57.2717379442278</v>
       </c>
       <c r="S38" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="T38" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="U38" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="V38" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="W38" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="X38" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="Y38" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
     </row>
     <row r="39">
@@ -30378,10 +30378,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="C40" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -30393,10 +30393,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="H40" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="I40" t="n">
         <v>135.7902964737582</v>
@@ -30429,25 +30429,25 @@
         <v>137.604203035474</v>
       </c>
       <c r="S40" t="n">
-        <v>123.2371231121553</v>
+        <v>123.2371231121544</v>
       </c>
       <c r="T40" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="U40" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="V40" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="W40" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="X40" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="Y40" t="n">
-        <v>154.4118442711661</v>
+        <v>154.4118442711662</v>
       </c>
     </row>
     <row r="41">
@@ -30633,7 +30633,7 @@
         <v>154.4118442711662</v>
       </c>
       <c r="H43" t="n">
-        <v>154.4118442711662</v>
+        <v>123.2371231121541</v>
       </c>
       <c r="I43" t="n">
         <v>135.7902964737582</v>
@@ -30666,7 +30666,7 @@
         <v>137.604203035474</v>
       </c>
       <c r="S43" t="n">
-        <v>123.2371231121544</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="T43" t="n">
         <v>154.4118442711662</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>123.2371231121544</v>
+        <v>154.4118442711662</v>
       </c>
       <c r="C46" t="n">
         <v>154.4118442711662</v>
@@ -30915,7 +30915,7 @@
         <v>154.4118442711662</v>
       </c>
       <c r="W46" t="n">
-        <v>154.4118442711662</v>
+        <v>123.2371231121541</v>
       </c>
       <c r="X46" t="n">
         <v>154.4118442711662</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5167479067100845</v>
+        <v>0.5167479067100843</v>
       </c>
       <c r="H11" t="n">
-        <v>5.292144499594655</v>
+        <v>5.292144499594652</v>
       </c>
       <c r="I11" t="n">
-        <v>19.92192367344056</v>
+        <v>19.92192367344055</v>
       </c>
       <c r="J11" t="n">
-        <v>43.85833264713508</v>
+        <v>43.85833264713506</v>
       </c>
       <c r="K11" t="n">
-        <v>65.73227153817297</v>
+        <v>65.73227153817294</v>
       </c>
       <c r="L11" t="n">
-        <v>81.54669528815174</v>
+        <v>81.54669528815171</v>
       </c>
       <c r="M11" t="n">
-        <v>90.73641087410721</v>
+        <v>90.73641087410716</v>
       </c>
       <c r="N11" t="n">
-        <v>92.20462086404724</v>
+        <v>92.2046208640472</v>
       </c>
       <c r="O11" t="n">
-        <v>87.06620886669883</v>
+        <v>87.06620886669879</v>
       </c>
       <c r="P11" t="n">
-        <v>74.30899491979361</v>
+        <v>74.30899491979358</v>
       </c>
       <c r="Q11" t="n">
-        <v>55.80296051073869</v>
+        <v>55.80296051073866</v>
       </c>
       <c r="R11" t="n">
-        <v>32.46016569487738</v>
+        <v>32.46016569487736</v>
       </c>
       <c r="S11" t="n">
         <v>11.77539292415606</v>
@@ -31792,7 +31792,7 @@
         <v>2.262063961623396</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04133983253680676</v>
+        <v>0.04133983253680674</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2764845049911554</v>
+        <v>0.2764845049911552</v>
       </c>
       <c r="H12" t="n">
-        <v>2.670258245572475</v>
+        <v>2.670258245572473</v>
       </c>
       <c r="I12" t="n">
-        <v>9.519313000791973</v>
+        <v>9.51931300079197</v>
       </c>
       <c r="J12" t="n">
-        <v>26.12172246497578</v>
+        <v>26.12172246497577</v>
       </c>
       <c r="K12" t="n">
-        <v>44.64618429938319</v>
+        <v>44.64618429938317</v>
       </c>
       <c r="L12" t="n">
-        <v>60.03230447187345</v>
+        <v>60.03230447187343</v>
       </c>
       <c r="M12" t="n">
-        <v>70.05486777780283</v>
+        <v>70.05486777780278</v>
       </c>
       <c r="N12" t="n">
-        <v>71.90901167311632</v>
+        <v>71.9090116731163</v>
       </c>
       <c r="O12" t="n">
-        <v>65.78269711515441</v>
+        <v>65.78269711515438</v>
       </c>
       <c r="P12" t="n">
-        <v>52.79641393993388</v>
+        <v>52.79641393993385</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.29300453185345</v>
+        <v>35.29300453185343</v>
       </c>
       <c r="R12" t="n">
-        <v>17.16629233620525</v>
+        <v>17.16629233620524</v>
       </c>
       <c r="S12" t="n">
-        <v>5.13557841507694</v>
+        <v>5.135578415076937</v>
       </c>
       <c r="T12" t="n">
-        <v>1.114426579328385</v>
+        <v>1.114426579328384</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0181897700652076</v>
+        <v>0.01818977006520759</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2317953212681098</v>
+        <v>0.2317953212681097</v>
       </c>
       <c r="H13" t="n">
-        <v>2.060871129092832</v>
+        <v>2.060871129092831</v>
       </c>
       <c r="I13" t="n">
-        <v>6.970717479590068</v>
+        <v>6.970717479590065</v>
       </c>
       <c r="J13" t="n">
-        <v>16.38792921365536</v>
+        <v>16.38792921365535</v>
       </c>
       <c r="K13" t="n">
-        <v>26.93040187096766</v>
+        <v>26.93040187096765</v>
       </c>
       <c r="L13" t="n">
-        <v>34.4616425819879</v>
+        <v>34.46164258198788</v>
       </c>
       <c r="M13" t="n">
-        <v>36.33497022387288</v>
+        <v>36.33497022387287</v>
       </c>
       <c r="N13" t="n">
-        <v>35.47100584460087</v>
+        <v>35.47100584460085</v>
       </c>
       <c r="O13" t="n">
-        <v>32.76321504615066</v>
+        <v>32.76321504615065</v>
       </c>
       <c r="P13" t="n">
-        <v>28.0345904922812</v>
+        <v>28.03459049228118</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.40969731091418</v>
+        <v>19.40969731091417</v>
       </c>
       <c r="R13" t="n">
         <v>10.42236053629155</v>
       </c>
       <c r="S13" t="n">
-        <v>4.039560280645149</v>
+        <v>4.039560280645147</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9903981908728325</v>
+        <v>0.9903981908728321</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01264338116007873</v>
+        <v>0.01264338116007872</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,34 +31987,34 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5167479067100845</v>
+        <v>0.5167479067100846</v>
       </c>
       <c r="H14" t="n">
-        <v>5.292144499594655</v>
+        <v>5.292144499594656</v>
       </c>
       <c r="I14" t="n">
         <v>19.92192367344056</v>
       </c>
       <c r="J14" t="n">
-        <v>43.85833264713508</v>
+        <v>43.85833264713509</v>
       </c>
       <c r="K14" t="n">
-        <v>65.73227153817297</v>
+        <v>65.73227153817298</v>
       </c>
       <c r="L14" t="n">
-        <v>81.54669528815174</v>
+        <v>81.54669528815175</v>
       </c>
       <c r="M14" t="n">
-        <v>90.73641087410721</v>
+        <v>90.73641087410722</v>
       </c>
       <c r="N14" t="n">
-        <v>92.20462086404724</v>
+        <v>92.20462086404726</v>
       </c>
       <c r="O14" t="n">
-        <v>87.06620886669883</v>
+        <v>87.06620886669884</v>
       </c>
       <c r="P14" t="n">
-        <v>74.30899491979361</v>
+        <v>74.30899491979362</v>
       </c>
       <c r="Q14" t="n">
         <v>55.80296051073869</v>
@@ -32023,13 +32023,13 @@
         <v>32.46016569487738</v>
       </c>
       <c r="S14" t="n">
-        <v>11.77539292415606</v>
+        <v>11.77539292415607</v>
       </c>
       <c r="T14" t="n">
-        <v>2.262063961623396</v>
+        <v>2.262063961623397</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04133983253680676</v>
+        <v>0.04133983253680677</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,43 +32066,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2764845049911554</v>
+        <v>0.2764845049911555</v>
       </c>
       <c r="H15" t="n">
         <v>2.670258245572475</v>
       </c>
       <c r="I15" t="n">
-        <v>9.519313000791973</v>
+        <v>9.519313000791975</v>
       </c>
       <c r="J15" t="n">
-        <v>26.12172246497578</v>
+        <v>26.12172246497579</v>
       </c>
       <c r="K15" t="n">
-        <v>44.64618429938319</v>
+        <v>44.6461842993832</v>
       </c>
       <c r="L15" t="n">
-        <v>60.03230447187345</v>
+        <v>60.03230447187347</v>
       </c>
       <c r="M15" t="n">
-        <v>70.05486777780283</v>
+        <v>70.05486777780284</v>
       </c>
       <c r="N15" t="n">
-        <v>71.90901167311632</v>
+        <v>71.90901167311634</v>
       </c>
       <c r="O15" t="n">
-        <v>65.78269711515441</v>
+        <v>65.78269711515442</v>
       </c>
       <c r="P15" t="n">
         <v>52.79641393993388</v>
       </c>
       <c r="Q15" t="n">
-        <v>35.29300453185345</v>
+        <v>35.29300453185346</v>
       </c>
       <c r="R15" t="n">
         <v>17.16629233620525</v>
       </c>
       <c r="S15" t="n">
-        <v>5.13557841507694</v>
+        <v>5.135578415076941</v>
       </c>
       <c r="T15" t="n">
         <v>1.114426579328385</v>
@@ -32145,31 +32145,31 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2317953212681098</v>
+        <v>0.2317953212681099</v>
       </c>
       <c r="H16" t="n">
-        <v>2.060871129092832</v>
+        <v>2.060871129092833</v>
       </c>
       <c r="I16" t="n">
-        <v>6.970717479590068</v>
+        <v>6.970717479590069</v>
       </c>
       <c r="J16" t="n">
-        <v>16.38792921365536</v>
+        <v>16.38792921365537</v>
       </c>
       <c r="K16" t="n">
-        <v>26.93040187096766</v>
+        <v>26.93040187096767</v>
       </c>
       <c r="L16" t="n">
         <v>34.4616425819879</v>
       </c>
       <c r="M16" t="n">
-        <v>36.33497022387288</v>
+        <v>36.33497022387289</v>
       </c>
       <c r="N16" t="n">
         <v>35.47100584460087</v>
       </c>
       <c r="O16" t="n">
-        <v>32.76321504615066</v>
+        <v>32.76321504615067</v>
       </c>
       <c r="P16" t="n">
         <v>28.0345904922812</v>
@@ -32181,10 +32181,10 @@
         <v>10.42236053629155</v>
       </c>
       <c r="S16" t="n">
-        <v>4.039560280645149</v>
+        <v>4.03956028064515</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9903981908728325</v>
+        <v>0.9903981908728328</v>
       </c>
       <c r="U16" t="n">
         <v>0.01264338116007873</v>
@@ -32224,34 +32224,34 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5167479067100845</v>
+        <v>0.5167479067100846</v>
       </c>
       <c r="H17" t="n">
-        <v>5.292144499594655</v>
+        <v>5.292144499594656</v>
       </c>
       <c r="I17" t="n">
         <v>19.92192367344056</v>
       </c>
       <c r="J17" t="n">
-        <v>43.85833264713508</v>
+        <v>43.85833264713509</v>
       </c>
       <c r="K17" t="n">
-        <v>65.73227153817297</v>
+        <v>65.73227153817298</v>
       </c>
       <c r="L17" t="n">
-        <v>81.54669528815174</v>
+        <v>81.54669528815175</v>
       </c>
       <c r="M17" t="n">
-        <v>90.73641087410721</v>
+        <v>90.73641087410722</v>
       </c>
       <c r="N17" t="n">
-        <v>92.20462086404724</v>
+        <v>92.20462086404726</v>
       </c>
       <c r="O17" t="n">
-        <v>87.06620886669883</v>
+        <v>87.06620886669884</v>
       </c>
       <c r="P17" t="n">
-        <v>74.30899491979361</v>
+        <v>74.30899491979362</v>
       </c>
       <c r="Q17" t="n">
         <v>55.80296051073869</v>
@@ -32260,13 +32260,13 @@
         <v>32.46016569487738</v>
       </c>
       <c r="S17" t="n">
-        <v>11.77539292415606</v>
+        <v>11.77539292415607</v>
       </c>
       <c r="T17" t="n">
-        <v>2.262063961623396</v>
+        <v>2.262063961623397</v>
       </c>
       <c r="U17" t="n">
-        <v>0.04133983253680676</v>
+        <v>0.04133983253680677</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,43 +32303,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2764845049911554</v>
+        <v>0.2764845049911555</v>
       </c>
       <c r="H18" t="n">
         <v>2.670258245572475</v>
       </c>
       <c r="I18" t="n">
-        <v>9.519313000791973</v>
+        <v>9.519313000791975</v>
       </c>
       <c r="J18" t="n">
-        <v>26.12172246497578</v>
+        <v>26.12172246497579</v>
       </c>
       <c r="K18" t="n">
-        <v>44.64618429938319</v>
+        <v>44.6461842993832</v>
       </c>
       <c r="L18" t="n">
-        <v>60.03230447187345</v>
+        <v>60.03230447187347</v>
       </c>
       <c r="M18" t="n">
-        <v>70.05486777780283</v>
+        <v>70.05486777780284</v>
       </c>
       <c r="N18" t="n">
-        <v>71.90901167311632</v>
+        <v>71.90901167311634</v>
       </c>
       <c r="O18" t="n">
-        <v>65.78269711515441</v>
+        <v>65.78269711515442</v>
       </c>
       <c r="P18" t="n">
         <v>52.79641393993388</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.29300453185345</v>
+        <v>35.29300453185346</v>
       </c>
       <c r="R18" t="n">
         <v>17.16629233620525</v>
       </c>
       <c r="S18" t="n">
-        <v>5.13557841507694</v>
+        <v>5.135578415076941</v>
       </c>
       <c r="T18" t="n">
         <v>1.114426579328385</v>
@@ -32382,31 +32382,31 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2317953212681098</v>
+        <v>0.2317953212681099</v>
       </c>
       <c r="H19" t="n">
-        <v>2.060871129092832</v>
+        <v>2.060871129092833</v>
       </c>
       <c r="I19" t="n">
-        <v>6.970717479590068</v>
+        <v>6.970717479590069</v>
       </c>
       <c r="J19" t="n">
-        <v>16.38792921365536</v>
+        <v>16.38792921365537</v>
       </c>
       <c r="K19" t="n">
-        <v>26.93040187096766</v>
+        <v>26.93040187096767</v>
       </c>
       <c r="L19" t="n">
         <v>34.4616425819879</v>
       </c>
       <c r="M19" t="n">
-        <v>36.33497022387288</v>
+        <v>36.33497022387289</v>
       </c>
       <c r="N19" t="n">
         <v>35.47100584460087</v>
       </c>
       <c r="O19" t="n">
-        <v>32.76321504615066</v>
+        <v>32.76321504615067</v>
       </c>
       <c r="P19" t="n">
         <v>28.0345904922812</v>
@@ -32418,10 +32418,10 @@
         <v>10.42236053629155</v>
       </c>
       <c r="S19" t="n">
-        <v>4.039560280645149</v>
+        <v>4.03956028064515</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9903981908728325</v>
+        <v>0.9903981908728328</v>
       </c>
       <c r="U19" t="n">
         <v>0.01264338116007873</v>
@@ -32461,34 +32461,34 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5167479067100845</v>
+        <v>0.5167479067100846</v>
       </c>
       <c r="H20" t="n">
-        <v>5.292144499594655</v>
+        <v>5.292144499594656</v>
       </c>
       <c r="I20" t="n">
         <v>19.92192367344056</v>
       </c>
       <c r="J20" t="n">
-        <v>43.85833264713508</v>
+        <v>43.85833264713509</v>
       </c>
       <c r="K20" t="n">
-        <v>65.73227153817297</v>
+        <v>65.73227153817298</v>
       </c>
       <c r="L20" t="n">
-        <v>81.54669528815174</v>
+        <v>81.54669528815175</v>
       </c>
       <c r="M20" t="n">
-        <v>90.73641087410721</v>
+        <v>90.73641087410722</v>
       </c>
       <c r="N20" t="n">
-        <v>92.20462086404724</v>
+        <v>92.20462086404726</v>
       </c>
       <c r="O20" t="n">
-        <v>87.06620886669883</v>
+        <v>87.06620886669884</v>
       </c>
       <c r="P20" t="n">
-        <v>74.30899491979361</v>
+        <v>74.30899491979362</v>
       </c>
       <c r="Q20" t="n">
         <v>55.80296051073869</v>
@@ -32497,13 +32497,13 @@
         <v>32.46016569487738</v>
       </c>
       <c r="S20" t="n">
-        <v>11.77539292415606</v>
+        <v>11.77539292415607</v>
       </c>
       <c r="T20" t="n">
-        <v>2.262063961623396</v>
+        <v>2.262063961623397</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04133983253680676</v>
+        <v>0.04133983253680677</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,43 +32540,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2764845049911554</v>
+        <v>0.2764845049911555</v>
       </c>
       <c r="H21" t="n">
         <v>2.670258245572475</v>
       </c>
       <c r="I21" t="n">
-        <v>9.519313000791973</v>
+        <v>9.519313000791975</v>
       </c>
       <c r="J21" t="n">
-        <v>26.12172246497578</v>
+        <v>26.12172246497579</v>
       </c>
       <c r="K21" t="n">
-        <v>44.64618429938319</v>
+        <v>44.6461842993832</v>
       </c>
       <c r="L21" t="n">
-        <v>60.03230447187345</v>
+        <v>60.03230447187347</v>
       </c>
       <c r="M21" t="n">
-        <v>70.05486777780283</v>
+        <v>70.05486777780284</v>
       </c>
       <c r="N21" t="n">
-        <v>71.90901167311632</v>
+        <v>71.90901167311634</v>
       </c>
       <c r="O21" t="n">
-        <v>65.78269711515441</v>
+        <v>65.78269711515442</v>
       </c>
       <c r="P21" t="n">
         <v>52.79641393993388</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.29300453185345</v>
+        <v>35.29300453185346</v>
       </c>
       <c r="R21" t="n">
         <v>17.16629233620525</v>
       </c>
       <c r="S21" t="n">
-        <v>5.13557841507694</v>
+        <v>5.135578415076941</v>
       </c>
       <c r="T21" t="n">
         <v>1.114426579328385</v>
@@ -32619,31 +32619,31 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2317953212681098</v>
+        <v>0.2317953212681099</v>
       </c>
       <c r="H22" t="n">
-        <v>2.060871129092832</v>
+        <v>2.060871129092833</v>
       </c>
       <c r="I22" t="n">
-        <v>6.970717479590068</v>
+        <v>6.970717479590069</v>
       </c>
       <c r="J22" t="n">
-        <v>16.38792921365536</v>
+        <v>16.38792921365537</v>
       </c>
       <c r="K22" t="n">
-        <v>26.93040187096766</v>
+        <v>26.93040187096767</v>
       </c>
       <c r="L22" t="n">
         <v>34.4616425819879</v>
       </c>
       <c r="M22" t="n">
-        <v>36.33497022387288</v>
+        <v>36.33497022387289</v>
       </c>
       <c r="N22" t="n">
         <v>35.47100584460087</v>
       </c>
       <c r="O22" t="n">
-        <v>32.76321504615066</v>
+        <v>32.76321504615067</v>
       </c>
       <c r="P22" t="n">
         <v>28.0345904922812</v>
@@ -32655,10 +32655,10 @@
         <v>10.42236053629155</v>
       </c>
       <c r="S22" t="n">
-        <v>4.039560280645149</v>
+        <v>4.03956028064515</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9903981908728325</v>
+        <v>0.9903981908728328</v>
       </c>
       <c r="U22" t="n">
         <v>0.01264338116007873</v>
@@ -32698,34 +32698,34 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5167479067100845</v>
+        <v>0.5167479067100846</v>
       </c>
       <c r="H23" t="n">
-        <v>5.292144499594655</v>
+        <v>5.292144499594656</v>
       </c>
       <c r="I23" t="n">
         <v>19.92192367344056</v>
       </c>
       <c r="J23" t="n">
-        <v>43.85833264713508</v>
+        <v>43.85833264713509</v>
       </c>
       <c r="K23" t="n">
-        <v>65.73227153817297</v>
+        <v>65.73227153817298</v>
       </c>
       <c r="L23" t="n">
-        <v>81.54669528815174</v>
+        <v>81.54669528815175</v>
       </c>
       <c r="M23" t="n">
-        <v>90.73641087410721</v>
+        <v>90.73641087410722</v>
       </c>
       <c r="N23" t="n">
-        <v>92.20462086404724</v>
+        <v>92.20462086404726</v>
       </c>
       <c r="O23" t="n">
-        <v>87.06620886669883</v>
+        <v>87.06620886669884</v>
       </c>
       <c r="P23" t="n">
-        <v>74.30899491979361</v>
+        <v>74.30899491979362</v>
       </c>
       <c r="Q23" t="n">
         <v>55.80296051073869</v>
@@ -32734,13 +32734,13 @@
         <v>32.46016569487738</v>
       </c>
       <c r="S23" t="n">
-        <v>11.77539292415606</v>
+        <v>11.77539292415607</v>
       </c>
       <c r="T23" t="n">
-        <v>2.262063961623396</v>
+        <v>2.262063961623397</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04133983253680676</v>
+        <v>0.04133983253680677</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,43 +32777,43 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2764845049911554</v>
+        <v>0.2764845049911555</v>
       </c>
       <c r="H24" t="n">
         <v>2.670258245572475</v>
       </c>
       <c r="I24" t="n">
-        <v>9.519313000791973</v>
+        <v>9.519313000791975</v>
       </c>
       <c r="J24" t="n">
-        <v>26.12172246497578</v>
+        <v>26.12172246497579</v>
       </c>
       <c r="K24" t="n">
-        <v>44.64618429938319</v>
+        <v>44.6461842993832</v>
       </c>
       <c r="L24" t="n">
-        <v>60.03230447187345</v>
+        <v>60.03230447187347</v>
       </c>
       <c r="M24" t="n">
-        <v>70.05486777780283</v>
+        <v>70.05486777780284</v>
       </c>
       <c r="N24" t="n">
-        <v>71.90901167311632</v>
+        <v>71.90901167311634</v>
       </c>
       <c r="O24" t="n">
-        <v>65.78269711515441</v>
+        <v>65.78269711515442</v>
       </c>
       <c r="P24" t="n">
         <v>52.79641393993388</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.29300453185345</v>
+        <v>35.29300453185346</v>
       </c>
       <c r="R24" t="n">
         <v>17.16629233620525</v>
       </c>
       <c r="S24" t="n">
-        <v>5.13557841507694</v>
+        <v>5.135578415076941</v>
       </c>
       <c r="T24" t="n">
         <v>1.114426579328385</v>
@@ -32856,31 +32856,31 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2317953212681098</v>
+        <v>0.2317953212681099</v>
       </c>
       <c r="H25" t="n">
-        <v>2.060871129092832</v>
+        <v>2.060871129092833</v>
       </c>
       <c r="I25" t="n">
-        <v>6.970717479590068</v>
+        <v>6.970717479590069</v>
       </c>
       <c r="J25" t="n">
-        <v>16.38792921365536</v>
+        <v>16.38792921365537</v>
       </c>
       <c r="K25" t="n">
-        <v>26.93040187096766</v>
+        <v>26.93040187096767</v>
       </c>
       <c r="L25" t="n">
         <v>34.4616425819879</v>
       </c>
       <c r="M25" t="n">
-        <v>36.33497022387288</v>
+        <v>36.33497022387289</v>
       </c>
       <c r="N25" t="n">
         <v>35.47100584460087</v>
       </c>
       <c r="O25" t="n">
-        <v>32.76321504615066</v>
+        <v>32.76321504615067</v>
       </c>
       <c r="P25" t="n">
         <v>28.0345904922812</v>
@@ -32892,10 +32892,10 @@
         <v>10.42236053629155</v>
       </c>
       <c r="S25" t="n">
-        <v>4.039560280645149</v>
+        <v>4.03956028064515</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9903981908728325</v>
+        <v>0.9903981908728328</v>
       </c>
       <c r="U25" t="n">
         <v>0.01264338116007873</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5167479067100853</v>
+        <v>0.5167479067100843</v>
       </c>
       <c r="H26" t="n">
-        <v>5.292144499594662</v>
+        <v>5.292144499594652</v>
       </c>
       <c r="I26" t="n">
-        <v>19.92192367344058</v>
+        <v>19.92192367344055</v>
       </c>
       <c r="J26" t="n">
-        <v>43.85833264713514</v>
+        <v>43.85833264713506</v>
       </c>
       <c r="K26" t="n">
-        <v>65.73227153817307</v>
+        <v>65.73227153817294</v>
       </c>
       <c r="L26" t="n">
-        <v>81.54669528815185</v>
+        <v>81.54669528815171</v>
       </c>
       <c r="M26" t="n">
-        <v>90.73641087410732</v>
+        <v>90.73641087410716</v>
       </c>
       <c r="N26" t="n">
-        <v>92.20462086404736</v>
+        <v>92.2046208640472</v>
       </c>
       <c r="O26" t="n">
-        <v>87.06620886669894</v>
+        <v>87.06620886669879</v>
       </c>
       <c r="P26" t="n">
-        <v>74.3089949197937</v>
+        <v>74.30899491979358</v>
       </c>
       <c r="Q26" t="n">
-        <v>55.80296051073876</v>
+        <v>55.80296051073866</v>
       </c>
       <c r="R26" t="n">
-        <v>32.46016569487742</v>
+        <v>32.46016569487736</v>
       </c>
       <c r="S26" t="n">
-        <v>11.77539292415608</v>
+        <v>11.77539292415606</v>
       </c>
       <c r="T26" t="n">
-        <v>2.2620639616234</v>
+        <v>2.262063961623396</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04133983253680681</v>
+        <v>0.04133983253680674</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2764845049911557</v>
+        <v>0.2764845049911552</v>
       </c>
       <c r="H27" t="n">
-        <v>2.670258245572478</v>
+        <v>2.670258245572473</v>
       </c>
       <c r="I27" t="n">
-        <v>9.519313000791986</v>
+        <v>9.51931300079197</v>
       </c>
       <c r="J27" t="n">
-        <v>26.12172246497582</v>
+        <v>26.12172246497577</v>
       </c>
       <c r="K27" t="n">
-        <v>44.64618429938325</v>
+        <v>44.64618429938317</v>
       </c>
       <c r="L27" t="n">
-        <v>60.03230447187354</v>
+        <v>60.03230447187343</v>
       </c>
       <c r="M27" t="n">
-        <v>70.05486777780291</v>
+        <v>70.05486777780278</v>
       </c>
       <c r="N27" t="n">
-        <v>71.90901167311642</v>
+        <v>71.9090116731163</v>
       </c>
       <c r="O27" t="n">
-        <v>65.78269711515449</v>
+        <v>65.78269711515438</v>
       </c>
       <c r="P27" t="n">
-        <v>52.79641393993394</v>
+        <v>52.79641393993385</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.2930045318535</v>
+        <v>35.29300453185343</v>
       </c>
       <c r="R27" t="n">
-        <v>17.16629233620527</v>
+        <v>17.16629233620524</v>
       </c>
       <c r="S27" t="n">
-        <v>5.135578415076946</v>
+        <v>5.135578415076937</v>
       </c>
       <c r="T27" t="n">
-        <v>1.114426579328386</v>
+        <v>1.114426579328384</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01818977006520762</v>
+        <v>0.01818977006520759</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2317953212681101</v>
+        <v>0.2317953212681097</v>
       </c>
       <c r="H28" t="n">
-        <v>2.060871129092835</v>
+        <v>2.060871129092831</v>
       </c>
       <c r="I28" t="n">
-        <v>6.970717479590077</v>
+        <v>6.970717479590065</v>
       </c>
       <c r="J28" t="n">
-        <v>16.38792921365538</v>
+        <v>16.38792921365535</v>
       </c>
       <c r="K28" t="n">
-        <v>26.9304018709677</v>
+        <v>26.93040187096765</v>
       </c>
       <c r="L28" t="n">
-        <v>34.46164258198794</v>
+        <v>34.46164258198788</v>
       </c>
       <c r="M28" t="n">
-        <v>36.33497022387293</v>
+        <v>36.33497022387287</v>
       </c>
       <c r="N28" t="n">
-        <v>35.47100584460091</v>
+        <v>35.47100584460085</v>
       </c>
       <c r="O28" t="n">
-        <v>32.76321504615071</v>
+        <v>32.76321504615065</v>
       </c>
       <c r="P28" t="n">
-        <v>28.03459049228123</v>
+        <v>28.03459049228118</v>
       </c>
       <c r="Q28" t="n">
-        <v>19.4096973109142</v>
+        <v>19.40969731091417</v>
       </c>
       <c r="R28" t="n">
-        <v>10.42236053629157</v>
+        <v>10.42236053629155</v>
       </c>
       <c r="S28" t="n">
-        <v>4.039560280645154</v>
+        <v>4.039560280645147</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9903981908728339</v>
+        <v>0.9903981908728321</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01264338116007875</v>
+        <v>0.01264338116007872</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -35173,13 +35173,13 @@
         <v>10.00967878293136</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="M8" t="n">
-        <v>9.605247316954339</v>
+        <v>9.605247316954333</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -35188,10 +35188,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>10.00967878293136</v>
       </c>
       <c r="M9" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="N9" t="n">
-        <v>10.00967878293136</v>
+        <v>9.605247316954333</v>
       </c>
       <c r="O9" t="n">
-        <v>10.00967878293136</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.605247316954333</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35334,19 +35334,19 @@
         <v>10.00967878293136</v>
       </c>
       <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>9.605247316954339</v>
+      </c>
+      <c r="O10" t="n">
         <v>10.00967878293136</v>
       </c>
-      <c r="M10" t="n">
+      <c r="P10" t="n">
         <v>10.00967878293136</v>
-      </c>
-      <c r="N10" t="n">
-        <v>9.605247316954333</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.5841349428984</v>
+        <v>116.5841349428983</v>
       </c>
       <c r="K11" t="n">
         <v>308.2983039066404</v>
       </c>
       <c r="L11" t="n">
-        <v>432.9460620406227</v>
+        <v>269.1581904161539</v>
       </c>
       <c r="M11" t="n">
-        <v>487.9476899176304</v>
+        <v>487.9476899176303</v>
       </c>
       <c r="N11" t="n">
-        <v>474.3575084273965</v>
+        <v>474.3575084273964</v>
       </c>
       <c r="O11" t="n">
-        <v>231.3637761036783</v>
+        <v>395.1516477281472</v>
       </c>
       <c r="P11" t="n">
-        <v>304.7705064915646</v>
+        <v>304.7705064915645</v>
       </c>
       <c r="Q11" t="n">
         <v>151.1890753456245</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>86.98449674084057</v>
       </c>
       <c r="K12" t="n">
         <v>276.4548232490687</v>
@@ -35498,7 +35498,7 @@
         <v>559.9875480911628</v>
       </c>
       <c r="N12" t="n">
-        <v>421.5772953291012</v>
+        <v>139.9345114446948</v>
       </c>
       <c r="O12" t="n">
         <v>461.9442635637917</v>
@@ -35507,7 +35507,7 @@
         <v>357.9438071477089</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>194.6582871435648</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.87734622612811</v>
+        <v>59.87734622612813</v>
       </c>
       <c r="K13" t="n">
         <v>163.8201090678977</v>
@@ -35583,10 +35583,10 @@
         <v>235.1675270421173</v>
       </c>
       <c r="P13" t="n">
-        <v>194.5852027230439</v>
+        <v>194.585202723044</v>
       </c>
       <c r="Q13" t="n">
-        <v>84.20381259050808</v>
+        <v>84.20381259050809</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,13 +35644,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>116.5841349428984</v>
       </c>
       <c r="K14" t="n">
         <v>308.2983039066404</v>
       </c>
       <c r="L14" t="n">
-        <v>432.9460620406227</v>
+        <v>269.1581904161536</v>
       </c>
       <c r="M14" t="n">
         <v>487.9476899176304</v>
@@ -35665,7 +35665,7 @@
         <v>304.7705064915646</v>
       </c>
       <c r="Q14" t="n">
-        <v>103.9853386640544</v>
+        <v>151.1890753456246</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>86.98449674084058</v>
       </c>
       <c r="K15" t="n">
         <v>276.4548232490687</v>
@@ -35732,19 +35732,19 @@
         <v>429.5493197952226</v>
       </c>
       <c r="M15" t="n">
-        <v>559.9875480911628</v>
+        <v>559.9875480911629</v>
       </c>
       <c r="N15" t="n">
-        <v>421.5772953291003</v>
+        <v>588.3389572520275</v>
       </c>
       <c r="O15" t="n">
-        <v>461.9442635637917</v>
+        <v>13.53981775645999</v>
       </c>
       <c r="P15" t="n">
         <v>357.9438071477089</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>194.6582871435648</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>59.87734622612811</v>
+        <v>59.87734622612817</v>
       </c>
       <c r="K16" t="n">
-        <v>163.8201090678977</v>
+        <v>163.8201090678978</v>
       </c>
       <c r="L16" t="n">
         <v>239.0310383199443</v>
       </c>
       <c r="M16" t="n">
-        <v>258.4664131611648</v>
+        <v>258.466413161165</v>
       </c>
       <c r="N16" t="n">
-        <v>258.035616076841</v>
+        <v>258.0356160768411</v>
       </c>
       <c r="O16" t="n">
-        <v>235.1675270421173</v>
+        <v>235.1675270421174</v>
       </c>
       <c r="P16" t="n">
-        <v>194.5852027230439</v>
+        <v>194.585202723044</v>
       </c>
       <c r="Q16" t="n">
-        <v>84.20381259050808</v>
+        <v>84.20381259050814</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,10 +35881,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>116.5841349428984</v>
       </c>
       <c r="K17" t="n">
-        <v>261.0945672250699</v>
+        <v>308.2983039066404</v>
       </c>
       <c r="L17" t="n">
         <v>432.9460620406227</v>
@@ -35893,7 +35893,7 @@
         <v>487.9476899176304</v>
       </c>
       <c r="N17" t="n">
-        <v>474.3575084273965</v>
+        <v>310.5696368029274</v>
       </c>
       <c r="O17" t="n">
         <v>395.1516477281473</v>
@@ -35902,7 +35902,7 @@
         <v>304.7705064915646</v>
       </c>
       <c r="Q17" t="n">
-        <v>151.1890753456245</v>
+        <v>151.1890753456246</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>86.98449674084058</v>
       </c>
       <c r="K18" t="n">
         <v>276.4548232490687</v>
@@ -35969,19 +35969,19 @@
         <v>429.5493197952226</v>
       </c>
       <c r="M18" t="n">
-        <v>559.9875480911628</v>
+        <v>559.9875480911629</v>
       </c>
       <c r="N18" t="n">
-        <v>421.5772953291003</v>
+        <v>588.3389572520275</v>
       </c>
       <c r="O18" t="n">
-        <v>461.9442635637917</v>
+        <v>13.53981775645907</v>
       </c>
       <c r="P18" t="n">
         <v>357.9438071477089</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>194.6582871435648</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>60.87402585545595</v>
+        <v>60.87402585545597</v>
       </c>
       <c r="L19" t="n">
         <v>136.0849551075025</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>116.5841349428984</v>
       </c>
       <c r="K20" t="n">
-        <v>308.2983039066404</v>
+        <v>295.699507627796</v>
       </c>
       <c r="L20" t="n">
         <v>432.9460620406227</v>
@@ -36139,7 +36139,7 @@
         <v>304.7705064915646</v>
       </c>
       <c r="Q20" t="n">
-        <v>103.9853386640544</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>86.98449674084057</v>
+        <v>86.98449674084058</v>
       </c>
       <c r="K21" t="n">
         <v>276.4548232490687</v>
@@ -36206,10 +36206,10 @@
         <v>429.5493197952226</v>
       </c>
       <c r="M21" t="n">
-        <v>559.9875480911628</v>
+        <v>111.5831022838302</v>
       </c>
       <c r="N21" t="n">
-        <v>139.9345114446948</v>
+        <v>588.3389572520275</v>
       </c>
       <c r="O21" t="n">
         <v>461.9442635637917</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>60.87402585545595</v>
+        <v>60.87402585545597</v>
       </c>
       <c r="L22" t="n">
         <v>136.0849551075025</v>
@@ -36376,7 +36376,7 @@
         <v>304.7705064915646</v>
       </c>
       <c r="Q23" t="n">
-        <v>151.1890753456245</v>
+        <v>151.1890753456246</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>86.98449674084057</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>276.4548232490687</v>
       </c>
       <c r="L24" t="n">
-        <v>429.5493197952226</v>
+        <v>68.12937072873025</v>
       </c>
       <c r="M24" t="n">
-        <v>559.9875480911628</v>
+        <v>559.9875480911629</v>
       </c>
       <c r="N24" t="n">
-        <v>139.9345114446948</v>
+        <v>588.3389572520275</v>
       </c>
       <c r="O24" t="n">
         <v>461.9442635637917</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>60.87402585545595</v>
+        <v>60.87402585545597</v>
       </c>
       <c r="L25" t="n">
         <v>136.0849551075025</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>181.7664700896529</v>
+        <v>219.5302181553401</v>
       </c>
       <c r="K26" t="n">
-        <v>308.2983039066405</v>
+        <v>411.2443871190821</v>
       </c>
       <c r="L26" t="n">
-        <v>535.8921452530647</v>
+        <v>535.8921452530644</v>
       </c>
       <c r="M26" t="n">
-        <v>487.9476899176305</v>
+        <v>487.9476899176303</v>
       </c>
       <c r="N26" t="n">
-        <v>577.3035916398384</v>
+        <v>474.3575084273964</v>
       </c>
       <c r="O26" t="n">
-        <v>498.0977309405892</v>
+        <v>460.3339828749054</v>
       </c>
       <c r="P26" t="n">
-        <v>407.7165897040064</v>
+        <v>407.7165897040063</v>
       </c>
       <c r="Q26" t="n">
-        <v>254.1351585580664</v>
+        <v>254.1351585580663</v>
       </c>
       <c r="R26" t="n">
-        <v>45.67434526821403</v>
+        <v>45.67434526821394</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>86.98449674084061</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>276.4548232490688</v>
+        <v>276.4548232490687</v>
       </c>
       <c r="L27" t="n">
-        <v>429.5493197952227</v>
+        <v>429.5493197952226</v>
       </c>
       <c r="M27" t="n">
-        <v>559.9875480911629</v>
+        <v>559.9875480911628</v>
       </c>
       <c r="N27" t="n">
-        <v>139.9345114446941</v>
+        <v>226.9190081855353</v>
       </c>
       <c r="O27" t="n">
-        <v>461.9442635637918</v>
+        <v>461.9442635637917</v>
       </c>
       <c r="P27" t="n">
         <v>357.9438071477089</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.87734622612818</v>
+        <v>59.87734622612812</v>
       </c>
       <c r="K28" t="n">
-        <v>163.8201090678978</v>
+        <v>163.8201090678977</v>
       </c>
       <c r="L28" t="n">
-        <v>239.0310383199444</v>
+        <v>239.0310383199443</v>
       </c>
       <c r="M28" t="n">
-        <v>258.466413161165</v>
+        <v>258.4664131611648</v>
       </c>
       <c r="N28" t="n">
-        <v>258.0356160768411</v>
+        <v>258.0356160768409</v>
       </c>
       <c r="O28" t="n">
-        <v>235.1675270421175</v>
+        <v>235.1675270421173</v>
       </c>
       <c r="P28" t="n">
-        <v>194.585202723044</v>
+        <v>194.5852027230439</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.20381259050814</v>
+        <v>84.20381259050808</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>219.5302181553401</v>
+        <v>219.5302181553402</v>
       </c>
       <c r="K29" t="n">
-        <v>411.2443871190822</v>
+        <v>373.4806390533974</v>
       </c>
       <c r="L29" t="n">
-        <v>535.8921452530644</v>
+        <v>432.9460620406227</v>
       </c>
       <c r="M29" t="n">
         <v>590.8937731300722</v>
       </c>
       <c r="N29" t="n">
-        <v>539.539843574152</v>
+        <v>577.3035916398383</v>
       </c>
       <c r="O29" t="n">
-        <v>498.097730940589</v>
+        <v>498.0977309405891</v>
       </c>
       <c r="P29" t="n">
-        <v>304.7705064915646</v>
+        <v>407.7165897040064</v>
       </c>
       <c r="Q29" t="n">
         <v>151.1890753456246</v>
       </c>
       <c r="R29" t="n">
-        <v>45.67434526821396</v>
+        <v>45.67434526821399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>86.98449674084058</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>276.4548232490687</v>
@@ -36920,7 +36920,7 @@
         <v>559.9875480911629</v>
       </c>
       <c r="N30" t="n">
-        <v>139.9345114446948</v>
+        <v>226.9190081855351</v>
       </c>
       <c r="O30" t="n">
         <v>461.9442635637917</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.87734622612813</v>
+        <v>59.87734622612815</v>
       </c>
       <c r="K31" t="n">
-        <v>163.8201090678977</v>
+        <v>163.8201090678978</v>
       </c>
       <c r="L31" t="n">
         <v>239.0310383199443</v>
@@ -37002,13 +37002,13 @@
         <v>258.035616076841</v>
       </c>
       <c r="O31" t="n">
-        <v>235.1675270421173</v>
+        <v>235.1675270421174</v>
       </c>
       <c r="P31" t="n">
         <v>194.585202723044</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.20381259050809</v>
+        <v>84.20381259050812</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>232.493506348878</v>
+        <v>232.4935063488779</v>
       </c>
       <c r="K32" t="n">
-        <v>371.9759976323996</v>
+        <v>424.20767531262</v>
       </c>
       <c r="L32" t="n">
-        <v>432.9460620406227</v>
+        <v>496.6237557663848</v>
       </c>
       <c r="M32" t="n">
-        <v>603.8570613236101</v>
+        <v>487.9476899176304</v>
       </c>
       <c r="N32" t="n">
-        <v>590.2668798333762</v>
+        <v>590.266879833376</v>
       </c>
       <c r="O32" t="n">
-        <v>511.0610191341269</v>
+        <v>395.1516477281473</v>
       </c>
       <c r="P32" t="n">
         <v>304.7705064915646</v>
       </c>
       <c r="Q32" t="n">
-        <v>151.1890753456246</v>
+        <v>267.0984467516041</v>
       </c>
       <c r="R32" t="n">
-        <v>58.63763346175184</v>
+        <v>58.63763346175174</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>72.840634419666</v>
+        <v>72.8406344196659</v>
       </c>
       <c r="K34" t="n">
-        <v>60.87402585545597</v>
+        <v>176.7833972614355</v>
       </c>
       <c r="L34" t="n">
         <v>136.0849551075025</v>
       </c>
       <c r="M34" t="n">
-        <v>187.9182113695009</v>
+        <v>155.5203299487231</v>
       </c>
       <c r="N34" t="n">
-        <v>270.9989042703789</v>
+        <v>187.487414285179</v>
       </c>
       <c r="O34" t="n">
-        <v>248.1308152356552</v>
+        <v>248.1308152356551</v>
       </c>
       <c r="P34" t="n">
         <v>207.5484909165818</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.16710078404597</v>
+        <v>97.16710078404587</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>86.98449674084058</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>276.4548232490687</v>
+        <v>272.9786813302852</v>
       </c>
       <c r="L36" t="n">
         <v>429.5493197952226</v>
       </c>
       <c r="M36" t="n">
-        <v>111.58310228383</v>
+        <v>559.9875480911629</v>
       </c>
       <c r="N36" t="n">
         <v>588.3389572520275</v>
@@ -37400,7 +37400,7 @@
         <v>461.9442635637917</v>
       </c>
       <c r="P36" t="n">
-        <v>357.9438071477089</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>194.6582871435648</v>
@@ -37549,7 +37549,7 @@
         <v>432.9460620406227</v>
       </c>
       <c r="M38" t="n">
-        <v>487.9476899176304</v>
+        <v>487.9476899176298</v>
       </c>
       <c r="N38" t="n">
         <v>474.3575084273965</v>
@@ -37561,7 +37561,7 @@
         <v>304.7705064915646</v>
       </c>
       <c r="Q38" t="n">
-        <v>151.1890753456247</v>
+        <v>151.1890753456246</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>559.9875480911629</v>
       </c>
       <c r="N39" t="n">
-        <v>139.9345114446944</v>
+        <v>139.9345114446946</v>
       </c>
       <c r="O39" t="n">
         <v>461.9442635637917</v>
@@ -37868,7 +37868,7 @@
         <v>559.9875480911629</v>
       </c>
       <c r="N42" t="n">
-        <v>139.9345114446944</v>
+        <v>139.9345114446946</v>
       </c>
       <c r="O42" t="n">
         <v>461.9442635637917</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.5841349428985</v>
+        <v>116.5841349428984</v>
       </c>
       <c r="K44" t="n">
         <v>308.2983039066404</v>
@@ -38102,10 +38102,10 @@
         <v>429.5493197952226</v>
       </c>
       <c r="M45" t="n">
-        <v>559.9875480911629</v>
+        <v>111.5831022838301</v>
       </c>
       <c r="N45" t="n">
-        <v>139.9345114446944</v>
+        <v>588.3389572520275</v>
       </c>
       <c r="O45" t="n">
         <v>461.9442635637917</v>
